--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_25_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>768300.697340795</v>
+        <v>767667.485484665</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5808968.500444943</v>
+        <v>5808968.500444938</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058549</v>
+        <v>632041.4518058531</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>12.71192971168351</v>
       </c>
       <c r="E11" t="n">
-        <v>38.45009570675971</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="G11" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>16.75585940079469</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.779624543948284</v>
+        <v>2.779624543948369</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>24.71680785700304</v>
+        <v>24.71680785700313</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.79296200847282</v>
+        <v>11.7929620084729</v>
       </c>
       <c r="V12" t="n">
-        <v>15.21273394540822</v>
+        <v>15.2127339454083</v>
       </c>
       <c r="W12" t="n">
-        <v>41.26839660701756</v>
+        <v>41.26839660701765</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>10.24158724936745</v>
+        <v>10.24158724936753</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="V13" t="n">
-        <v>19.67282821445588</v>
+        <v>19.67282821445596</v>
       </c>
       <c r="W13" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.71192971168183</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>37.42873756868534</v>
       </c>
       <c r="G14" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.779624543948341</v>
+        <v>2.779624543948358</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>24.71680785700313</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11.7929620084729</v>
+        <v>11.79296200847288</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2127339454083</v>
+        <v>15.21273394540827</v>
       </c>
       <c r="W15" t="n">
-        <v>41.26839660701765</v>
+        <v>41.26839660701762</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>10.24158724936752</v>
+        <v>10.24158724936751</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="V16" t="n">
-        <v>19.67282821445596</v>
+        <v>19.67282821445593</v>
       </c>
       <c r="W16" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,22 +1844,22 @@
         <v>36.19077655206644</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>33.58244823586926</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>30.87914363384334</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.438999912589679</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>21.88625046893924</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.494025395873</v>
+        <v>0.2195330058387297</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>12.26686123462542</v>
       </c>
       <c r="C20" t="n">
         <v>12.30903355541193</v>
@@ -2090,13 +2090,13 @@
         <v>33.58244823586926</v>
       </c>
       <c r="F20" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.827861322035038</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="H20" t="n">
-        <v>9.438999912589679</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>21.88625046893924</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
     </row>
     <row r="21">
@@ -2330,7 +2330,7 @@
         <v>65.30278581424659</v>
       </c>
       <c r="G23" t="n">
-        <v>77.40126617658943</v>
+        <v>77.40126617658959</v>
       </c>
       <c r="H23" t="n">
         <v>9.438999912589679</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>137.2320734133373</v>
+        <v>137.2320734133374</v>
       </c>
       <c r="C26" t="n">
-        <v>113.3503304166828</v>
+        <v>113.3503304166829</v>
       </c>
       <c r="D26" t="n">
         <v>100.9169926777313</v>
@@ -2567,13 +2567,13 @@
         <v>166.3440826755175</v>
       </c>
       <c r="G26" t="n">
-        <v>182.013672677494</v>
+        <v>182.0136726774941</v>
       </c>
       <c r="H26" t="n">
         <v>110.4802967738606</v>
       </c>
       <c r="I26" t="n">
-        <v>5.336879406292724</v>
+        <v>5.33687940629278</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>13.29782786250107</v>
+        <v>13.29782786250113</v>
       </c>
       <c r="V26" t="n">
-        <v>84.02461664465602</v>
+        <v>84.02461664465608</v>
       </c>
       <c r="W26" t="n">
-        <v>101.0412968612709</v>
+        <v>101.041296861271</v>
       </c>
       <c r="X26" t="n">
-        <v>122.9275473302101</v>
+        <v>122.9275473302102</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.4304004539539</v>
+        <v>145.430400453954</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.3739820139708508</v>
+        <v>0.3739820139709076</v>
       </c>
       <c r="V27" t="n">
-        <v>3.79375395090625</v>
+        <v>3.793753950906307</v>
       </c>
       <c r="W27" t="n">
-        <v>29.8494166125156</v>
+        <v>29.84941661251565</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>51.80214033224858</v>
+        <v>51.80214033224863</v>
       </c>
       <c r="V28" t="n">
-        <v>8.253848219953909</v>
+        <v>8.253848219953966</v>
       </c>
       <c r="W28" t="n">
-        <v>53.45554012483933</v>
+        <v>53.45554012483939</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>137.2320734133372</v>
+        <v>137.2320734133374</v>
       </c>
       <c r="C29" t="n">
-        <v>113.3503304166827</v>
+        <v>113.3503304166829</v>
       </c>
       <c r="D29" t="n">
-        <v>100.9169926777312</v>
+        <v>100.9169926777314</v>
       </c>
       <c r="E29" t="n">
-        <v>134.6237450971401</v>
+        <v>134.6237450971402</v>
       </c>
       <c r="F29" t="n">
-        <v>166.3440826755174</v>
+        <v>166.3440826755176</v>
       </c>
       <c r="G29" t="n">
-        <v>182.013672677494</v>
+        <v>182.0136726774941</v>
       </c>
       <c r="H29" t="n">
-        <v>110.4802967738605</v>
+        <v>110.4802967738607</v>
       </c>
       <c r="I29" t="n">
-        <v>5.336879406292638</v>
+        <v>5.336879406292809</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>13.29782786250099</v>
+        <v>13.29782786250116</v>
       </c>
       <c r="V29" t="n">
-        <v>84.02461664465594</v>
+        <v>84.02461664465611</v>
       </c>
       <c r="W29" t="n">
-        <v>101.0412968612708</v>
+        <v>101.041296861271</v>
       </c>
       <c r="X29" t="n">
-        <v>122.92754733021</v>
+        <v>122.9275473302102</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.4304004539538</v>
+        <v>145.430400453954</v>
       </c>
     </row>
     <row r="30">
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.3739820139707655</v>
+        <v>0.3739820139709361</v>
       </c>
       <c r="V30" t="n">
-        <v>3.793753950906165</v>
+        <v>3.793753950906336</v>
       </c>
       <c r="W30" t="n">
-        <v>29.84941661251551</v>
+        <v>29.84941661251568</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>51.80214033224849</v>
+        <v>51.80214033224866</v>
       </c>
       <c r="V31" t="n">
-        <v>8.253848219953824</v>
+        <v>8.253848219953994</v>
       </c>
       <c r="W31" t="n">
-        <v>53.45554012483925</v>
+        <v>53.45554012483942</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.2320734133372</v>
+        <v>137.2320734133375</v>
       </c>
       <c r="C32" t="n">
-        <v>113.3503304166827</v>
+        <v>113.350330416683</v>
       </c>
       <c r="D32" t="n">
-        <v>100.9169926777312</v>
+        <v>100.9169926777314</v>
       </c>
       <c r="E32" t="n">
-        <v>134.62374509714</v>
+        <v>134.6237450971403</v>
       </c>
       <c r="F32" t="n">
-        <v>166.3440826755174</v>
+        <v>166.3440826755176</v>
       </c>
       <c r="G32" t="n">
-        <v>182.0136726774939</v>
+        <v>182.0136726774942</v>
       </c>
       <c r="H32" t="n">
-        <v>110.4802967738605</v>
+        <v>110.4802967738607</v>
       </c>
       <c r="I32" t="n">
-        <v>5.33687940629261</v>
+        <v>5.336879406292866</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>13.29782786250095</v>
+        <v>13.29782786250121</v>
       </c>
       <c r="V32" t="n">
-        <v>84.02461664465591</v>
+        <v>84.02461664465616</v>
       </c>
       <c r="W32" t="n">
-        <v>101.0412968612708</v>
+        <v>101.041296861271</v>
       </c>
       <c r="X32" t="n">
-        <v>122.92754733021</v>
+        <v>122.9275473302103</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.4304004539538</v>
+        <v>145.430400453954</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.3739820139707371</v>
+        <v>0.3739820139709929</v>
       </c>
       <c r="V33" t="n">
-        <v>3.793753950906137</v>
+        <v>3.793753950906392</v>
       </c>
       <c r="W33" t="n">
-        <v>29.84941661251548</v>
+        <v>29.84941661251574</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>51.80214033224846</v>
+        <v>51.80214033224872</v>
       </c>
       <c r="V34" t="n">
-        <v>8.253848219953795</v>
+        <v>8.253848219954051</v>
       </c>
       <c r="W34" t="n">
-        <v>53.45554012483922</v>
+        <v>53.45554012483947</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>100.0525025541818</v>
       </c>
       <c r="D35" t="n">
-        <v>87.61916481523022</v>
+        <v>87.61916481523025</v>
       </c>
       <c r="E35" t="n">
         <v>121.3259172346391</v>
@@ -3278,10 +3278,10 @@
         <v>153.0462548130164</v>
       </c>
       <c r="G35" t="n">
-        <v>168.7158448149929</v>
+        <v>168.715844814993</v>
       </c>
       <c r="H35" t="n">
-        <v>97.18246891135951</v>
+        <v>97.18246891135954</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>70.72678878215496</v>
+        <v>70.72678878215498</v>
       </c>
       <c r="W35" t="n">
-        <v>87.74346899876983</v>
+        <v>87.74346899876986</v>
       </c>
       <c r="X35" t="n">
         <v>109.6297194677091</v>
       </c>
       <c r="Y35" t="n">
-        <v>132.1325725914528</v>
+        <v>132.1325725914529</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>16.55158875001453</v>
+        <v>16.55158875001456</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>38.50431246974751</v>
+        <v>38.50431246974754</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>40.15771226233826</v>
+        <v>40.15771226233829</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>123.9342455508362</v>
+        <v>123.9342455508363</v>
       </c>
       <c r="C38" t="n">
-        <v>100.0525025541817</v>
+        <v>100.0525025541818</v>
       </c>
       <c r="D38" t="n">
-        <v>87.61916481523019</v>
+        <v>87.61916481523025</v>
       </c>
       <c r="E38" t="n">
         <v>121.3259172346391</v>
@@ -3515,10 +3515,10 @@
         <v>153.0462548130164</v>
       </c>
       <c r="G38" t="n">
-        <v>168.7158448149929</v>
+        <v>168.715844814993</v>
       </c>
       <c r="H38" t="n">
-        <v>97.18246891135948</v>
+        <v>97.18246891135954</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>70.72678878215493</v>
+        <v>70.72678878215498</v>
       </c>
       <c r="W38" t="n">
-        <v>87.7434689987698</v>
+        <v>87.74346899876986</v>
       </c>
       <c r="X38" t="n">
-        <v>109.629719467709</v>
+        <v>109.6297194677091</v>
       </c>
       <c r="Y38" t="n">
-        <v>132.1325725914528</v>
+        <v>132.1325725914529</v>
       </c>
     </row>
     <row r="39">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>16.5515887500145</v>
+        <v>16.55158875001456</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>38.50431246974748</v>
+        <v>38.50431246974754</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>40.15771226233824</v>
+        <v>40.15771226233829</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>121.3259172346391</v>
       </c>
       <c r="F44" t="n">
-        <v>153.0462548130164</v>
+        <v>153.0462548130162</v>
       </c>
       <c r="G44" t="n">
         <v>168.715844814993</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>145.0096290006606</v>
+        <v>59.16311304940292</v>
       </c>
       <c r="C11" t="n">
-        <v>145.0096290006606</v>
+        <v>59.16311304940292</v>
       </c>
       <c r="D11" t="n">
-        <v>145.0096290006606</v>
+        <v>46.32278000729965</v>
       </c>
       <c r="E11" t="n">
-        <v>106.1711484887821</v>
+        <v>46.32278000729965</v>
       </c>
       <c r="F11" t="n">
-        <v>106.1711484887821</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="G11" t="n">
-        <v>63.24789051315285</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="H11" t="n">
-        <v>20.32463253752356</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="I11" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="J11" t="n">
-        <v>3.39952203166984</v>
+        <v>45.46860717358461</v>
       </c>
       <c r="K11" t="n">
-        <v>45.4686071735841</v>
+        <v>50.18283953022524</v>
       </c>
       <c r="L11" t="n">
-        <v>45.4686071735841</v>
+        <v>50.18283953022524</v>
       </c>
       <c r="M11" t="n">
-        <v>45.4686071735841</v>
+        <v>92.25192467213998</v>
       </c>
       <c r="N11" t="n">
-        <v>45.4686071735841</v>
+        <v>127.9070164415792</v>
       </c>
       <c r="O11" t="n">
-        <v>87.53769231549836</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="P11" t="n">
-        <v>99.56502340804951</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.6341085499638</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="R11" t="n">
-        <v>169.9761015834919</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="S11" t="n">
-        <v>167.1684000239482</v>
+        <v>167.1684000239501</v>
       </c>
       <c r="T11" t="n">
-        <v>169.976101583492</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="U11" t="n">
-        <v>145.0096290006606</v>
+        <v>145.0096290006625</v>
       </c>
       <c r="V11" t="n">
-        <v>145.0096290006606</v>
+        <v>102.0863710250327</v>
       </c>
       <c r="W11" t="n">
-        <v>145.0096290006606</v>
+        <v>59.16311304940292</v>
       </c>
       <c r="X11" t="n">
-        <v>145.0096290006606</v>
+        <v>59.16311304940292</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.0096290006606</v>
+        <v>59.16311304940292</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.39952203166984</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="C12" t="n">
-        <v>3.39952203166984</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="D12" t="n">
-        <v>3.39952203166984</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="E12" t="n">
-        <v>3.39952203166984</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="F12" t="n">
-        <v>3.39952203166984</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="G12" t="n">
-        <v>3.39952203166984</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="H12" t="n">
-        <v>3.39952203166984</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="I12" t="n">
-        <v>3.39952203166984</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="J12" t="n">
-        <v>3.39952203166984</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="K12" t="n">
-        <v>3.39952203166984</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="L12" t="n">
-        <v>3.39952203166984</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="M12" t="n">
-        <v>3.39952203166984</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="N12" t="n">
-        <v>3.39952203166984</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="O12" t="n">
-        <v>3.39952203166984</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="P12" t="n">
-        <v>45.4686071735841</v>
+        <v>30.29416674924894</v>
       </c>
       <c r="Q12" t="n">
-        <v>72.36325189116339</v>
+        <v>72.36325189116367</v>
       </c>
       <c r="R12" t="n">
-        <v>72.36325189116339</v>
+        <v>72.36325189116367</v>
       </c>
       <c r="S12" t="n">
-        <v>72.36325189116339</v>
+        <v>72.36325189116367</v>
       </c>
       <c r="T12" t="n">
-        <v>72.36325189116339</v>
+        <v>72.36325189116367</v>
       </c>
       <c r="U12" t="n">
-        <v>60.45116905432215</v>
+        <v>60.45116905432235</v>
       </c>
       <c r="V12" t="n">
-        <v>45.08477112966738</v>
+        <v>45.0847711296675</v>
       </c>
       <c r="W12" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="X12" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="C13" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="D13" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="E13" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="F13" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="G13" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="H13" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="I13" t="n">
-        <v>14.15062074304844</v>
+        <v>45.46860717358461</v>
       </c>
       <c r="J13" t="n">
-        <v>14.15062074304844</v>
+        <v>87.53769231549934</v>
       </c>
       <c r="K13" t="n">
-        <v>14.15062074304844</v>
+        <v>87.53769231549934</v>
       </c>
       <c r="L13" t="n">
-        <v>14.15062074304844</v>
+        <v>87.53769231549934</v>
       </c>
       <c r="M13" t="n">
-        <v>14.15062074304844</v>
+        <v>87.53769231549934</v>
       </c>
       <c r="N13" t="n">
-        <v>56.2197058849627</v>
+        <v>87.53769231549934</v>
       </c>
       <c r="O13" t="n">
-        <v>56.2197058849627</v>
+        <v>87.53769231549934</v>
       </c>
       <c r="P13" t="n">
-        <v>56.2197058849627</v>
+        <v>87.53769231549934</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.28879102687696</v>
+        <v>119.4626192595188</v>
       </c>
       <c r="R13" t="n">
-        <v>119.4626192595177</v>
+        <v>119.4626192595188</v>
       </c>
       <c r="S13" t="n">
-        <v>109.117581633894</v>
+        <v>109.117581633895</v>
       </c>
       <c r="T13" t="n">
-        <v>109.117581633894</v>
+        <v>109.117581633895</v>
       </c>
       <c r="U13" t="n">
-        <v>66.19432365826466</v>
+        <v>66.19432365826526</v>
       </c>
       <c r="V13" t="n">
-        <v>46.32278000729913</v>
+        <v>46.32278000729965</v>
       </c>
       <c r="W13" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="X13" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>132.1692959585577</v>
+        <v>84.12958563223435</v>
       </c>
       <c r="C14" t="n">
-        <v>89.24603798292841</v>
+        <v>84.12958563223435</v>
       </c>
       <c r="D14" t="n">
-        <v>89.24603798292841</v>
+        <v>41.20632765660457</v>
       </c>
       <c r="E14" t="n">
-        <v>89.24603798292841</v>
+        <v>41.20632765660457</v>
       </c>
       <c r="F14" t="n">
-        <v>89.24603798292841</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="G14" t="n">
-        <v>46.32278000729913</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="H14" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="I14" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="J14" t="n">
-        <v>39.51191567682514</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="K14" t="n">
-        <v>39.51191567682514</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="L14" t="n">
-        <v>57.49593826613539</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="M14" t="n">
-        <v>99.56502340804965</v>
+        <v>31.24313980952335</v>
       </c>
       <c r="N14" t="n">
-        <v>99.56502340804965</v>
+        <v>43.76884615774967</v>
       </c>
       <c r="O14" t="n">
-        <v>99.56502340804965</v>
+        <v>85.8379312996644</v>
       </c>
       <c r="P14" t="n">
-        <v>141.6341085499639</v>
+        <v>127.9070164415791</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.6341085499639</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="R14" t="n">
-        <v>169.976101583492</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="S14" t="n">
-        <v>167.1684000239482</v>
+        <v>167.1684000239501</v>
       </c>
       <c r="T14" t="n">
-        <v>169.976101583492</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="U14" t="n">
-        <v>145.0096290006606</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="V14" t="n">
-        <v>145.0096290006606</v>
+        <v>127.0528436078641</v>
       </c>
       <c r="W14" t="n">
-        <v>145.0096290006606</v>
+        <v>84.12958563223435</v>
       </c>
       <c r="X14" t="n">
-        <v>145.0096290006606</v>
+        <v>84.12958563223435</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.0096290006606</v>
+        <v>84.12958563223435</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.430903859278482</v>
+        <v>11.44156183688801</v>
       </c>
       <c r="C15" t="n">
-        <v>5.430903859278482</v>
+        <v>48.98041692805978</v>
       </c>
       <c r="D15" t="n">
-        <v>5.430903859278482</v>
+        <v>48.98041692805978</v>
       </c>
       <c r="E15" t="n">
-        <v>5.430903859278482</v>
+        <v>48.98041692805978</v>
       </c>
       <c r="F15" t="n">
-        <v>5.430903859278482</v>
+        <v>48.98041692805978</v>
       </c>
       <c r="G15" t="n">
-        <v>30.29416674924938</v>
+        <v>48.98041692805978</v>
       </c>
       <c r="H15" t="n">
-        <v>30.29416674924938</v>
+        <v>48.98041692805978</v>
       </c>
       <c r="I15" t="n">
-        <v>30.29416674924938</v>
+        <v>48.98041692805978</v>
       </c>
       <c r="J15" t="n">
-        <v>30.29416674924938</v>
+        <v>48.98041692805978</v>
       </c>
       <c r="K15" t="n">
-        <v>30.29416674924938</v>
+        <v>72.36325189116359</v>
       </c>
       <c r="L15" t="n">
-        <v>72.36325189116364</v>
+        <v>72.36325189116359</v>
       </c>
       <c r="M15" t="n">
-        <v>72.36325189116364</v>
+        <v>72.36325189116359</v>
       </c>
       <c r="N15" t="n">
-        <v>72.36325189116364</v>
+        <v>72.36325189116359</v>
       </c>
       <c r="O15" t="n">
-        <v>72.36325189116364</v>
+        <v>72.36325189116359</v>
       </c>
       <c r="P15" t="n">
-        <v>72.36325189116364</v>
+        <v>72.36325189116359</v>
       </c>
       <c r="Q15" t="n">
-        <v>72.36325189116364</v>
+        <v>72.36325189116359</v>
       </c>
       <c r="R15" t="n">
-        <v>72.36325189116364</v>
+        <v>72.36325189116359</v>
       </c>
       <c r="S15" t="n">
-        <v>72.36325189116364</v>
+        <v>72.36325189116359</v>
       </c>
       <c r="T15" t="n">
-        <v>72.36325189116364</v>
+        <v>72.36325189116359</v>
       </c>
       <c r="U15" t="n">
-        <v>60.45116905432232</v>
+        <v>60.45116905432229</v>
       </c>
       <c r="V15" t="n">
         <v>45.08477112966747</v>
       </c>
       <c r="W15" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="X15" t="n">
-        <v>3.39952203166984</v>
+        <v>11.44156183688801</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.430903859278482</v>
+        <v>11.44156183688801</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.881086277803739</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="C16" t="n">
-        <v>6.881086277803739</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="D16" t="n">
-        <v>6.881086277803739</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="E16" t="n">
-        <v>6.881086277803739</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="F16" t="n">
-        <v>48.950171419718</v>
+        <v>45.46860717358461</v>
       </c>
       <c r="G16" t="n">
-        <v>48.950171419718</v>
+        <v>45.46860717358461</v>
       </c>
       <c r="H16" t="n">
-        <v>48.950171419718</v>
+        <v>45.46860717358461</v>
       </c>
       <c r="I16" t="n">
-        <v>48.950171419718</v>
+        <v>45.46860717358461</v>
       </c>
       <c r="J16" t="n">
-        <v>54.6200116007678</v>
+        <v>45.46860717358461</v>
       </c>
       <c r="K16" t="n">
-        <v>54.6200116007678</v>
+        <v>45.46860717358461</v>
       </c>
       <c r="L16" t="n">
-        <v>54.6200116007678</v>
+        <v>45.46860717358461</v>
       </c>
       <c r="M16" t="n">
-        <v>96.68909674268207</v>
+        <v>87.53769231549934</v>
       </c>
       <c r="N16" t="n">
-        <v>96.68909674268207</v>
+        <v>87.53769231549934</v>
       </c>
       <c r="O16" t="n">
-        <v>96.68909674268207</v>
+        <v>119.4626192595188</v>
       </c>
       <c r="P16" t="n">
-        <v>96.68909674268207</v>
+        <v>119.4626192595188</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.68909674268207</v>
+        <v>119.4626192595188</v>
       </c>
       <c r="R16" t="n">
-        <v>117.8629249753227</v>
+        <v>119.4626192595188</v>
       </c>
       <c r="S16" t="n">
-        <v>107.5178873496989</v>
+        <v>109.117581633895</v>
       </c>
       <c r="T16" t="n">
-        <v>109.117581633894</v>
+        <v>109.117581633895</v>
       </c>
       <c r="U16" t="n">
-        <v>66.19432365826475</v>
+        <v>66.19432365826523</v>
       </c>
       <c r="V16" t="n">
-        <v>46.32278000729913</v>
+        <v>46.32278000729965</v>
       </c>
       <c r="W16" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="X16" t="n">
-        <v>6.881086277803739</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.881086277803739</v>
+        <v>3.399522031669878</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.38917995028115</v>
+        <v>111.0906874149644</v>
       </c>
       <c r="C17" t="n">
-        <v>68.38917995028115</v>
+        <v>98.65732018727553</v>
       </c>
       <c r="D17" t="n">
-        <v>68.51224109198537</v>
+        <v>98.78038132897971</v>
       </c>
       <c r="E17" t="n">
-        <v>34.59057620726892</v>
+        <v>98.78038132897971</v>
       </c>
       <c r="F17" t="n">
-        <v>3.39952203166984</v>
+        <v>55.85712335334994</v>
       </c>
       <c r="G17" t="n">
-        <v>3.39952203166984</v>
+        <v>12.93386537772017</v>
       </c>
       <c r="H17" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="I17" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="J17" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="K17" t="n">
-        <v>45.4686071735841</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="L17" t="n">
-        <v>45.4686071735841</v>
+        <v>43.76884615774967</v>
       </c>
       <c r="M17" t="n">
-        <v>45.4686071735841</v>
+        <v>43.76884615774967</v>
       </c>
       <c r="N17" t="n">
-        <v>45.4686071735841</v>
+        <v>43.76884615774967</v>
       </c>
       <c r="O17" t="n">
-        <v>45.4686071735841</v>
+        <v>43.76884615774967</v>
       </c>
       <c r="P17" t="n">
-        <v>87.53769231549836</v>
+        <v>85.8379312996644</v>
       </c>
       <c r="Q17" t="n">
-        <v>87.53769231549836</v>
+        <v>85.8379312996644</v>
       </c>
       <c r="R17" t="n">
-        <v>87.53769231549836</v>
+        <v>85.8379312996644</v>
       </c>
       <c r="S17" t="n">
-        <v>111.060503027129</v>
+        <v>127.9070164415791</v>
       </c>
       <c r="T17" t="n">
-        <v>111.060503027129</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="U17" t="n">
-        <v>153.1295881690432</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="V17" t="n">
-        <v>169.976101583492</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="W17" t="n">
-        <v>169.976101583492</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="X17" t="n">
-        <v>147.8687778774927</v>
+        <v>147.8687778774946</v>
       </c>
       <c r="Y17" t="n">
-        <v>104.9455199018634</v>
+        <v>147.6470273665467</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="C18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="D18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="E18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="F18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="G18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="H18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="I18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="J18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="K18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="L18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="M18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="N18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="O18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="P18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="R18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="S18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="T18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="U18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="V18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="W18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="X18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="C19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="D19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="E19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="F19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="G19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="H19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="I19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="J19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="K19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="L19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="M19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="N19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="O19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="P19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="R19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="S19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="T19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="U19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="V19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="W19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="X19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.9455199018637</v>
+        <v>92.55475097800078</v>
       </c>
       <c r="C20" t="n">
-        <v>92.51215267417481</v>
+        <v>80.12138375031194</v>
       </c>
       <c r="D20" t="n">
-        <v>92.63521381587898</v>
+        <v>80.24444489201611</v>
       </c>
       <c r="E20" t="n">
-        <v>58.71354893116253</v>
+        <v>46.32278000729965</v>
       </c>
       <c r="F20" t="n">
-        <v>15.79029095553324</v>
+        <v>46.32278000729965</v>
       </c>
       <c r="G20" t="n">
-        <v>12.93386537772002</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="H20" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="I20" t="n">
-        <v>3.39952203166984</v>
+        <v>26.92233274330096</v>
       </c>
       <c r="J20" t="n">
-        <v>3.39952203166984</v>
+        <v>26.92233274330096</v>
       </c>
       <c r="K20" t="n">
-        <v>3.39952203166984</v>
+        <v>68.9914178852157</v>
       </c>
       <c r="L20" t="n">
-        <v>3.39952203166984</v>
+        <v>68.9914178852157</v>
       </c>
       <c r="M20" t="n">
-        <v>3.39952203166984</v>
+        <v>68.9914178852157</v>
       </c>
       <c r="N20" t="n">
-        <v>3.39952203166984</v>
+        <v>111.0605030271304</v>
       </c>
       <c r="O20" t="n">
-        <v>3.39952203166984</v>
+        <v>111.0605030271304</v>
       </c>
       <c r="P20" t="n">
-        <v>3.39952203166984</v>
+        <v>153.1295881690452</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.39952203166984</v>
+        <v>153.1295881690452</v>
       </c>
       <c r="R20" t="n">
-        <v>45.4686071735841</v>
+        <v>153.1295881690452</v>
       </c>
       <c r="S20" t="n">
-        <v>68.99141788521473</v>
+        <v>153.1295881690452</v>
       </c>
       <c r="T20" t="n">
-        <v>111.060503027129</v>
+        <v>153.1295881690452</v>
       </c>
       <c r="U20" t="n">
-        <v>153.1295881690432</v>
+        <v>153.1295881690452</v>
       </c>
       <c r="V20" t="n">
-        <v>169.976101583492</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="W20" t="n">
-        <v>169.976101583492</v>
+        <v>169.9761015834939</v>
       </c>
       <c r="X20" t="n">
-        <v>147.868777877493</v>
+        <v>147.8687778774946</v>
       </c>
       <c r="Y20" t="n">
-        <v>104.9455199018637</v>
+        <v>104.9455199018648</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="C21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="D21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="E21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="F21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="G21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="H21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="I21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="J21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="K21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="L21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="M21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="N21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="O21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="P21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="R21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="S21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="T21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="U21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="V21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="W21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="X21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="C22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="D22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="E22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="F22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="G22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="H22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="I22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="J22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="K22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="L22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="M22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="N22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="O22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="P22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="R22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="S22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="T22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="U22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="V22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="W22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="X22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.39952203166984</v>
+        <v>3.399522031669878</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>206.1039226723288</v>
+        <v>206.1039226723292</v>
       </c>
       <c r="C23" t="n">
-        <v>193.67055544464</v>
+        <v>193.6705554446405</v>
       </c>
       <c r="D23" t="n">
-        <v>193.7936165863442</v>
+        <v>193.7936165863446</v>
       </c>
       <c r="E23" t="n">
-        <v>159.8719517016278</v>
+        <v>159.8719517016281</v>
       </c>
       <c r="F23" t="n">
-        <v>93.90954178824728</v>
+        <v>93.90954178824785</v>
       </c>
       <c r="G23" t="n">
-        <v>15.72644464017734</v>
+        <v>15.72644464017735</v>
       </c>
       <c r="H23" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="I23" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="J23" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="K23" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="L23" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="M23" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="N23" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="O23" t="n">
-        <v>6.192101294127155</v>
+        <v>82.81935480895086</v>
       </c>
       <c r="P23" t="n">
-        <v>79.72330416188711</v>
+        <v>159.4466083237746</v>
       </c>
       <c r="Q23" t="n">
-        <v>156.3505576767107</v>
+        <v>159.4466083237746</v>
       </c>
       <c r="R23" t="n">
-        <v>232.9778111915342</v>
+        <v>236.0738618385982</v>
       </c>
       <c r="S23" t="n">
-        <v>309.6050647063577</v>
+        <v>236.0738618385982</v>
       </c>
       <c r="T23" t="n">
-        <v>309.6050647063577</v>
+        <v>292.7585512919096</v>
       </c>
       <c r="U23" t="n">
-        <v>309.6050647063577</v>
+        <v>292.7585512919096</v>
       </c>
       <c r="V23" t="n">
-        <v>309.6050647063577</v>
+        <v>309.6050647063583</v>
       </c>
       <c r="W23" t="n">
-        <v>309.6050647063578</v>
+        <v>309.6050647063583</v>
       </c>
       <c r="X23" t="n">
-        <v>287.4977410003585</v>
+        <v>287.4977410003591</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.6602626239111</v>
+        <v>242.6602626239116</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="C24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="D24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="E24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="F24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="G24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="H24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="I24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="J24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="K24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="L24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="M24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="N24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="O24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="P24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="R24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="S24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="T24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="U24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="V24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="W24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="X24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="C25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="D25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="E25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="F25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="G25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="H25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="I25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="J25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="K25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="L25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="M25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="N25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="O25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="P25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="R25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="S25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="T25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="U25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="V25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="W25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="X25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.192101294127155</v>
+        <v>6.192101294127167</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>850.4896670542535</v>
+        <v>850.4896670542546</v>
       </c>
       <c r="C26" t="n">
-        <v>735.994383805079</v>
+        <v>735.9943838050799</v>
       </c>
       <c r="D26" t="n">
-        <v>634.0580275649465</v>
+        <v>634.0580275649472</v>
       </c>
       <c r="E26" t="n">
-        <v>498.0744466587444</v>
+        <v>498.074446658745</v>
       </c>
       <c r="F26" t="n">
-        <v>330.0501207238782</v>
+        <v>330.0501207238788</v>
       </c>
       <c r="G26" t="n">
-        <v>146.1979261001468</v>
+        <v>146.1979261001477</v>
       </c>
       <c r="H26" t="n">
-        <v>34.60166673261164</v>
+        <v>34.60166673261174</v>
       </c>
       <c r="I26" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="J26" t="n">
-        <v>185.1069238584291</v>
+        <v>131.2437611896585</v>
       </c>
       <c r="K26" t="n">
-        <v>355.2085488135074</v>
+        <v>355.2085488135097</v>
       </c>
       <c r="L26" t="n">
-        <v>631.6249689089386</v>
+        <v>631.6249689089409</v>
       </c>
       <c r="M26" t="n">
-        <v>941.6425307374053</v>
+        <v>707.1559154425565</v>
       </c>
       <c r="N26" t="n">
-        <v>1011.553210934114</v>
+        <v>777.0665956392651</v>
       </c>
       <c r="O26" t="n">
-        <v>1040.658525062573</v>
+        <v>1040.658525062575</v>
       </c>
       <c r="P26" t="n">
-        <v>1255.838279975417</v>
+        <v>1255.838279975419</v>
       </c>
       <c r="Q26" t="n">
-        <v>1398.23173579817</v>
+        <v>1398.231735798172</v>
       </c>
       <c r="R26" t="n">
-        <v>1437.878519026255</v>
+        <v>1437.878519026257</v>
       </c>
       <c r="S26" t="n">
-        <v>1446.431480922303</v>
+        <v>1446.431480922305</v>
       </c>
       <c r="T26" t="n">
-        <v>1460.543972676404</v>
+        <v>1460.543972676406</v>
       </c>
       <c r="U26" t="n">
-        <v>1447.111823320343</v>
+        <v>1447.111823320344</v>
       </c>
       <c r="V26" t="n">
-        <v>1362.238473174225</v>
+        <v>1362.238473174227</v>
       </c>
       <c r="W26" t="n">
-        <v>1260.17655715274</v>
+        <v>1260.176557152741</v>
       </c>
       <c r="X26" t="n">
-        <v>1136.007317425255</v>
+        <v>1136.007317425256</v>
       </c>
       <c r="Y26" t="n">
-        <v>989.1079230273215</v>
+        <v>989.1079230273227</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="C27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="D27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="E27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="F27" t="n">
-        <v>63.57163963271263</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="G27" t="n">
-        <v>63.57163963271263</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="H27" t="n">
-        <v>63.57163963271263</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="I27" t="n">
-        <v>63.57163963271263</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="J27" t="n">
-        <v>63.57163963271263</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="K27" t="n">
-        <v>63.57163963271263</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="L27" t="n">
-        <v>63.57163963271263</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="M27" t="n">
-        <v>63.57163963271263</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="N27" t="n">
-        <v>63.57163963271263</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="O27" t="n">
-        <v>63.57163963271263</v>
+        <v>63.57163963271285</v>
       </c>
       <c r="P27" t="n">
-        <v>63.57163963271263</v>
+        <v>63.57163963271285</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.57163963271263</v>
+        <v>63.57163963271285</v>
       </c>
       <c r="R27" t="n">
-        <v>63.57163963271263</v>
+        <v>63.57163963271285</v>
       </c>
       <c r="S27" t="n">
-        <v>63.57163963271263</v>
+        <v>63.57163963271285</v>
       </c>
       <c r="T27" t="n">
-        <v>63.57163963271263</v>
+        <v>63.57163963271285</v>
       </c>
       <c r="U27" t="n">
-        <v>63.19388002264107</v>
+        <v>63.19388002264122</v>
       </c>
       <c r="V27" t="n">
-        <v>59.36180532475596</v>
+        <v>59.36180532475606</v>
       </c>
       <c r="W27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="X27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="C28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="D28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="E28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="F28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="G28" t="n">
-        <v>29.21087945352808</v>
+        <v>96.67010911404985</v>
       </c>
       <c r="H28" t="n">
-        <v>29.21087945352808</v>
+        <v>96.67010911404985</v>
       </c>
       <c r="I28" t="n">
-        <v>29.21087945352808</v>
+        <v>96.67010911404985</v>
       </c>
       <c r="J28" t="n">
-        <v>29.21087945352808</v>
+        <v>96.67010911404985</v>
       </c>
       <c r="K28" t="n">
-        <v>143.8689892283178</v>
+        <v>96.67010911404985</v>
       </c>
       <c r="L28" t="n">
-        <v>143.8689892283178</v>
+        <v>96.67010911404985</v>
       </c>
       <c r="M28" t="n">
-        <v>143.8689892283178</v>
+        <v>96.67010911404985</v>
       </c>
       <c r="N28" t="n">
-        <v>143.8689892283178</v>
+        <v>96.67010911404985</v>
       </c>
       <c r="O28" t="n">
-        <v>143.8689892283178</v>
+        <v>130.9645047495659</v>
       </c>
       <c r="P28" t="n">
-        <v>143.8689892283178</v>
+        <v>130.9645047495659</v>
       </c>
       <c r="Q28" t="n">
-        <v>143.8689892283178</v>
+        <v>130.9645047495659</v>
       </c>
       <c r="R28" t="n">
-        <v>143.8689892283178</v>
+        <v>130.9645047495659</v>
       </c>
       <c r="S28" t="n">
-        <v>143.8689892283178</v>
+        <v>130.9645047495659</v>
       </c>
       <c r="T28" t="n">
-        <v>143.8689892283178</v>
+        <v>143.868989228318</v>
       </c>
       <c r="U28" t="n">
-        <v>91.54359495331923</v>
+        <v>91.54359495331938</v>
       </c>
       <c r="V28" t="n">
-        <v>83.20637452912337</v>
+        <v>83.20637452912347</v>
       </c>
       <c r="W28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="X28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>850.4896670542537</v>
+        <v>850.4896670542545</v>
       </c>
       <c r="C29" t="n">
-        <v>735.9943838050792</v>
+        <v>735.9943838050798</v>
       </c>
       <c r="D29" t="n">
-        <v>634.0580275649467</v>
+        <v>634.0580275649471</v>
       </c>
       <c r="E29" t="n">
-        <v>498.0744466587446</v>
+        <v>498.0744466587448</v>
       </c>
       <c r="F29" t="n">
         <v>330.0501207238785</v>
       </c>
       <c r="G29" t="n">
-        <v>146.1979261001474</v>
+        <v>146.1979261001471</v>
       </c>
       <c r="H29" t="n">
-        <v>34.60166673261156</v>
+        <v>34.60166673261177</v>
       </c>
       <c r="I29" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="J29" t="n">
-        <v>185.1069238584292</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="K29" t="n">
-        <v>409.0717114822805</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="L29" t="n">
-        <v>685.4881315777119</v>
+        <v>281.3223072671668</v>
       </c>
       <c r="M29" t="n">
-        <v>837.0852650872662</v>
+        <v>591.3398690956335</v>
       </c>
       <c r="N29" t="n">
-        <v>1141.482560578826</v>
+        <v>895.737164587193</v>
       </c>
       <c r="O29" t="n">
-        <v>1405.074490002136</v>
+        <v>1159.329094010503</v>
       </c>
       <c r="P29" t="n">
-        <v>1437.878519026255</v>
+        <v>1374.508848923347</v>
       </c>
       <c r="Q29" t="n">
-        <v>1437.878519026255</v>
+        <v>1412.344227552273</v>
       </c>
       <c r="R29" t="n">
-        <v>1437.878519026255</v>
+        <v>1451.991010780358</v>
       </c>
       <c r="S29" t="n">
-        <v>1446.431480922303</v>
+        <v>1460.543972676406</v>
       </c>
       <c r="T29" t="n">
-        <v>1460.543972676404</v>
+        <v>1460.543972676406</v>
       </c>
       <c r="U29" t="n">
-        <v>1447.111823320342</v>
+        <v>1447.111823320344</v>
       </c>
       <c r="V29" t="n">
-        <v>1362.238473174225</v>
+        <v>1362.238473174227</v>
       </c>
       <c r="W29" t="n">
-        <v>1260.17655715274</v>
+        <v>1260.176557152741</v>
       </c>
       <c r="X29" t="n">
-        <v>1136.007317425255</v>
+        <v>1136.007317425256</v>
       </c>
       <c r="Y29" t="n">
-        <v>989.1079230273216</v>
+        <v>989.1079230273226</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="C30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="D30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="E30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="F30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="G30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="H30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="I30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="J30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="K30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="L30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="M30" t="n">
-        <v>63.57163963271237</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="N30" t="n">
-        <v>63.57163963271237</v>
+        <v>41.97171358294363</v>
       </c>
       <c r="O30" t="n">
-        <v>63.57163963271237</v>
+        <v>41.97171358294363</v>
       </c>
       <c r="P30" t="n">
-        <v>63.57163963271237</v>
+        <v>41.97171358294363</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.57163963271237</v>
+        <v>41.97171358294363</v>
       </c>
       <c r="R30" t="n">
-        <v>63.57163963271237</v>
+        <v>41.97171358294363</v>
       </c>
       <c r="S30" t="n">
-        <v>63.57163963271237</v>
+        <v>41.97171358294363</v>
       </c>
       <c r="T30" t="n">
-        <v>63.57163963271237</v>
+        <v>63.57163963271293</v>
       </c>
       <c r="U30" t="n">
-        <v>63.19388002264089</v>
+        <v>63.19388002264128</v>
       </c>
       <c r="V30" t="n">
-        <v>59.36180532475588</v>
+        <v>59.36180532475609</v>
       </c>
       <c r="W30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="X30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="C31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="D31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="E31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="F31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="G31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="H31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="I31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="J31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="K31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="L31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="M31" t="n">
-        <v>29.21087945352808</v>
+        <v>122.0805253865004</v>
       </c>
       <c r="N31" t="n">
-        <v>29.21087945352808</v>
+        <v>122.0805253865004</v>
       </c>
       <c r="O31" t="n">
-        <v>143.8689892283175</v>
+        <v>122.0805253865004</v>
       </c>
       <c r="P31" t="n">
-        <v>143.8689892283175</v>
+        <v>122.0805253865004</v>
       </c>
       <c r="Q31" t="n">
-        <v>143.8689892283175</v>
+        <v>122.0805253865004</v>
       </c>
       <c r="R31" t="n">
-        <v>143.8689892283175</v>
+        <v>143.8689892283181</v>
       </c>
       <c r="S31" t="n">
-        <v>143.8689892283175</v>
+        <v>143.8689892283181</v>
       </c>
       <c r="T31" t="n">
-        <v>143.8689892283175</v>
+        <v>143.8689892283181</v>
       </c>
       <c r="U31" t="n">
-        <v>91.54359495331906</v>
+        <v>91.54359495331946</v>
       </c>
       <c r="V31" t="n">
-        <v>83.20637452912328</v>
+        <v>83.20637452912349</v>
       </c>
       <c r="W31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="X31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>850.489667054254</v>
+        <v>850.4896670542544</v>
       </c>
       <c r="C32" t="n">
-        <v>735.9943838050796</v>
+        <v>735.9943838050798</v>
       </c>
       <c r="D32" t="n">
         <v>634.058027564947</v>
       </c>
       <c r="E32" t="n">
-        <v>498.0744466587449</v>
+        <v>498.0744466587447</v>
       </c>
       <c r="F32" t="n">
-        <v>330.0501207238789</v>
+        <v>330.0501207238785</v>
       </c>
       <c r="G32" t="n">
-        <v>146.1979261001472</v>
+        <v>146.1979261001475</v>
       </c>
       <c r="H32" t="n">
-        <v>34.60166673261153</v>
+        <v>34.60166673261183</v>
       </c>
       <c r="I32" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="J32" t="n">
-        <v>185.1069238584292</v>
+        <v>185.106923858429</v>
       </c>
       <c r="K32" t="n">
-        <v>409.0717114822806</v>
+        <v>409.0717114822801</v>
       </c>
       <c r="L32" t="n">
-        <v>409.0717114822806</v>
+        <v>660.7635120625464</v>
       </c>
       <c r="M32" t="n">
-        <v>719.0892733107474</v>
+        <v>970.7810738910129</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.486568802307</v>
+        <v>1040.691754087721</v>
       </c>
       <c r="O32" t="n">
-        <v>1052.591882930766</v>
+        <v>1080.305308290661</v>
       </c>
       <c r="P32" t="n">
-        <v>1255.838279975417</v>
+        <v>1295.485063203505</v>
       </c>
       <c r="Q32" t="n">
-        <v>1398.23173579817</v>
+        <v>1437.878519026258</v>
       </c>
       <c r="R32" t="n">
-        <v>1437.878519026255</v>
+        <v>1437.878519026258</v>
       </c>
       <c r="S32" t="n">
-        <v>1446.431480922303</v>
+        <v>1446.431480922306</v>
       </c>
       <c r="T32" t="n">
-        <v>1460.543972676404</v>
+        <v>1460.543972676406</v>
       </c>
       <c r="U32" t="n">
-        <v>1447.111823320342</v>
+        <v>1447.111823320344</v>
       </c>
       <c r="V32" t="n">
-        <v>1362.238473174225</v>
+        <v>1362.238473174227</v>
       </c>
       <c r="W32" t="n">
-        <v>1260.17655715274</v>
+        <v>1260.176557152741</v>
       </c>
       <c r="X32" t="n">
-        <v>1136.007317425255</v>
+        <v>1136.007317425256</v>
       </c>
       <c r="Y32" t="n">
-        <v>989.1079230273219</v>
+        <v>989.1079230273226</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="C33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="D33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="E33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="F33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="G33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="H33" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271311</v>
       </c>
       <c r="I33" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271311</v>
       </c>
       <c r="J33" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271311</v>
       </c>
       <c r="K33" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271311</v>
       </c>
       <c r="L33" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271311</v>
       </c>
       <c r="M33" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271311</v>
       </c>
       <c r="N33" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271311</v>
       </c>
       <c r="O33" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271311</v>
       </c>
       <c r="P33" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271311</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271311</v>
       </c>
       <c r="R33" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271311</v>
       </c>
       <c r="S33" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271311</v>
       </c>
       <c r="T33" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271311</v>
       </c>
       <c r="U33" t="n">
-        <v>63.19388002264083</v>
+        <v>63.19388002264139</v>
       </c>
       <c r="V33" t="n">
-        <v>59.36180532475585</v>
+        <v>59.36180532475615</v>
       </c>
       <c r="W33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="X33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="C34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="D34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="E34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="F34" t="n">
-        <v>29.21087945352808</v>
+        <v>126.1598813521168</v>
       </c>
       <c r="G34" t="n">
-        <v>29.21087945352808</v>
+        <v>126.1598813521168</v>
       </c>
       <c r="H34" t="n">
-        <v>29.21087945352808</v>
+        <v>126.1598813521168</v>
       </c>
       <c r="I34" t="n">
-        <v>29.21087945352808</v>
+        <v>126.1598813521168</v>
       </c>
       <c r="J34" t="n">
-        <v>29.21087945352808</v>
+        <v>126.1598813521168</v>
       </c>
       <c r="K34" t="n">
-        <v>29.21087945352808</v>
+        <v>126.1598813521168</v>
       </c>
       <c r="L34" t="n">
-        <v>29.21087945352808</v>
+        <v>126.1598813521168</v>
       </c>
       <c r="M34" t="n">
-        <v>29.21087945352808</v>
+        <v>126.1598813521168</v>
       </c>
       <c r="N34" t="n">
-        <v>29.21087945352808</v>
+        <v>126.1598813521168</v>
       </c>
       <c r="O34" t="n">
-        <v>29.21087945352808</v>
+        <v>126.1598813521168</v>
       </c>
       <c r="P34" t="n">
-        <v>29.21087945352808</v>
+        <v>143.8689892283183</v>
       </c>
       <c r="Q34" t="n">
-        <v>136.6123186230056</v>
+        <v>143.8689892283183</v>
       </c>
       <c r="R34" t="n">
-        <v>143.8689892283174</v>
+        <v>143.8689892283183</v>
       </c>
       <c r="S34" t="n">
-        <v>143.8689892283174</v>
+        <v>143.8689892283183</v>
       </c>
       <c r="T34" t="n">
-        <v>143.8689892283174</v>
+        <v>143.8689892283183</v>
       </c>
       <c r="U34" t="n">
-        <v>91.543594953319</v>
+        <v>91.54359495331957</v>
       </c>
       <c r="V34" t="n">
-        <v>83.20637452912325</v>
+        <v>83.20637452912355</v>
       </c>
       <c r="W34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="X34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352812</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>761.1064616071305</v>
+        <v>761.1064616071315</v>
       </c>
       <c r="C35" t="n">
-        <v>660.0433277140177</v>
+        <v>660.0433277140185</v>
       </c>
       <c r="D35" t="n">
-        <v>571.5391208299468</v>
+        <v>571.5391208299475</v>
       </c>
       <c r="E35" t="n">
-        <v>448.9876892798063</v>
+        <v>448.9876892798069</v>
       </c>
       <c r="F35" t="n">
-        <v>294.3955127010022</v>
+        <v>294.3955127010024</v>
       </c>
       <c r="G35" t="n">
         <v>123.9754674333325</v>
       </c>
       <c r="H35" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="I35" t="n">
-        <v>33.6926963935045</v>
+        <v>33.69269639350448</v>
       </c>
       <c r="J35" t="n">
-        <v>202.7535903822815</v>
+        <v>33.69269639350448</v>
       </c>
       <c r="K35" t="n">
-        <v>231.9374625173552</v>
+        <v>270.8223336012318</v>
       </c>
       <c r="L35" t="n">
-        <v>415.1261557231882</v>
+        <v>292.4655809221342</v>
       </c>
       <c r="M35" t="n">
-        <v>734.5417038186839</v>
+        <v>611.88112901763</v>
       </c>
       <c r="N35" t="n">
-        <v>734.5417038186839</v>
+        <v>611.88112901763</v>
       </c>
       <c r="O35" t="n">
-        <v>1011.29848282587</v>
+        <v>888.6379080248158</v>
       </c>
       <c r="P35" t="n">
         <v>1033.202780056421</v>
@@ -6962,7 +6962,7 @@
         <v>1241.572718275011</v>
       </c>
       <c r="S35" t="n">
-        <v>1263.290529754935</v>
+        <v>1263.290529754936</v>
       </c>
       <c r="T35" t="n">
         <v>1290.567871092912</v>
@@ -6971,16 +6971,16 @@
         <v>1290.567871092912</v>
       </c>
       <c r="V35" t="n">
-        <v>1219.126670302856</v>
+        <v>1219.126670302857</v>
       </c>
       <c r="W35" t="n">
-        <v>1130.496903637432</v>
+        <v>1130.496903637433</v>
       </c>
       <c r="X35" t="n">
         <v>1019.759813266009</v>
       </c>
       <c r="Y35" t="n">
-        <v>886.2925682241369</v>
+        <v>886.2925682241378</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="C36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="D36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="E36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="F36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="G36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="H36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="I36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="J36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="K36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="L36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="M36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="N36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="O36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="P36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="R36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="S36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="T36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="U36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="V36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702447</v>
       </c>
       <c r="W36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="X36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="Y36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185825</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="C37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="D37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="E37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="F37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="G37" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="H37" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="I37" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="J37" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="K37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603288</v>
       </c>
       <c r="L37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603288</v>
       </c>
       <c r="M37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603288</v>
       </c>
       <c r="N37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603288</v>
       </c>
       <c r="O37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603288</v>
       </c>
       <c r="P37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603288</v>
       </c>
       <c r="Q37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603288</v>
       </c>
       <c r="R37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603288</v>
       </c>
       <c r="S37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603288</v>
       </c>
       <c r="T37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603288</v>
       </c>
       <c r="U37" t="n">
-        <v>66.37470314139185</v>
+        <v>66.37470314139188</v>
       </c>
       <c r="V37" t="n">
-        <v>66.37470314139185</v>
+        <v>66.37470314139188</v>
       </c>
       <c r="W37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="X37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185825</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185825</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>761.1064616071309</v>
+        <v>761.106461607131</v>
       </c>
       <c r="C38" t="n">
         <v>660.043327714018</v>
       </c>
       <c r="D38" t="n">
-        <v>571.5391208299473</v>
+        <v>571.539120829947</v>
       </c>
       <c r="E38" t="n">
-        <v>448.9876892798068</v>
+        <v>448.9876892798065</v>
       </c>
       <c r="F38" t="n">
-        <v>294.3955127010023</v>
+        <v>294.395512701002</v>
       </c>
       <c r="G38" t="n">
         <v>123.9754674333325</v>
@@ -7169,37 +7169,37 @@
         <v>25.81135742185824</v>
       </c>
       <c r="I38" t="n">
-        <v>33.69269639350453</v>
+        <v>33.69269639350447</v>
       </c>
       <c r="J38" t="n">
-        <v>202.7535903822816</v>
+        <v>202.7535903822815</v>
       </c>
       <c r="K38" t="n">
-        <v>439.883227590009</v>
+        <v>202.7535903822815</v>
       </c>
       <c r="L38" t="n">
-        <v>461.5264749109114</v>
+        <v>224.3968377031839</v>
       </c>
       <c r="M38" t="n">
-        <v>766.4378092518374</v>
+        <v>543.8123857986795</v>
       </c>
       <c r="N38" t="n">
-        <v>836.3484894485459</v>
+        <v>751.79161487485</v>
       </c>
       <c r="O38" t="n">
-        <v>1113.105268455732</v>
+        <v>847.016573236616</v>
       </c>
       <c r="P38" t="n">
-        <v>1135.009565686283</v>
+        <v>1075.361177733337</v>
       </c>
       <c r="Q38" t="n">
-        <v>1290.567871092912</v>
+        <v>1230.919483139965</v>
       </c>
       <c r="R38" t="n">
-        <v>1290.567871092912</v>
+        <v>1241.572718275011</v>
       </c>
       <c r="S38" t="n">
-        <v>1290.567871092912</v>
+        <v>1263.290529754935</v>
       </c>
       <c r="T38" t="n">
         <v>1290.567871092912</v>
@@ -7217,7 +7217,7 @@
         <v>1019.759813266009</v>
       </c>
       <c r="Y38" t="n">
-        <v>886.2925682241372</v>
+        <v>886.2925682241373</v>
       </c>
     </row>
     <row r="39">
@@ -7269,25 +7269,25 @@
         <v>25.81135742185824</v>
       </c>
       <c r="P39" t="n">
-        <v>42.5301339370244</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.5301339370244</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="R39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702446</v>
       </c>
       <c r="S39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702446</v>
       </c>
       <c r="T39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702446</v>
       </c>
       <c r="U39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702446</v>
       </c>
       <c r="V39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702446</v>
       </c>
       <c r="W39" t="n">
         <v>25.81135742185824</v>
@@ -7333,40 +7333,40 @@
         <v>25.81135742185824</v>
       </c>
       <c r="K40" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="L40" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="M40" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="N40" t="n">
-        <v>105.2679480603287</v>
+        <v>100.2744082142071</v>
       </c>
       <c r="O40" t="n">
-        <v>105.2679480603287</v>
+        <v>100.2744082142071</v>
       </c>
       <c r="P40" t="n">
-        <v>105.2679480603287</v>
+        <v>100.2744082142071</v>
       </c>
       <c r="Q40" t="n">
-        <v>105.2679480603287</v>
+        <v>100.2744082142071</v>
       </c>
       <c r="R40" t="n">
-        <v>105.2679480603287</v>
+        <v>100.2744082142071</v>
       </c>
       <c r="S40" t="n">
-        <v>105.2679480603287</v>
+        <v>100.2744082142071</v>
       </c>
       <c r="T40" t="n">
-        <v>105.2679480603287</v>
+        <v>100.2744082142071</v>
       </c>
       <c r="U40" t="n">
-        <v>66.37470314139182</v>
+        <v>61.38116329527022</v>
       </c>
       <c r="V40" t="n">
-        <v>66.37470314139182</v>
+        <v>66.37470314139188</v>
       </c>
       <c r="W40" t="n">
         <v>25.81135742185824</v>
@@ -7406,31 +7406,31 @@
         <v>25.81135742185824</v>
       </c>
       <c r="I41" t="n">
-        <v>33.69269639350451</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="J41" t="n">
-        <v>149.4199424871511</v>
+        <v>194.8722514106353</v>
       </c>
       <c r="K41" t="n">
-        <v>386.5495796948784</v>
+        <v>342.1688954890678</v>
       </c>
       <c r="L41" t="n">
-        <v>676.1308493741858</v>
+        <v>631.7501651683751</v>
       </c>
       <c r="M41" t="n">
-        <v>676.1308493741858</v>
+        <v>666.5606545743959</v>
       </c>
       <c r="N41" t="n">
-        <v>993.6929944496214</v>
+        <v>736.4713347711045</v>
       </c>
       <c r="O41" t="n">
-        <v>1189.661193310928</v>
+        <v>1013.22811377829</v>
       </c>
       <c r="P41" t="n">
-        <v>1211.565490541479</v>
+        <v>1241.572718275011</v>
       </c>
       <c r="Q41" t="n">
-        <v>1230.919483139966</v>
+        <v>1241.572718275011</v>
       </c>
       <c r="R41" t="n">
         <v>1241.572718275011</v>
@@ -7494,31 +7494,31 @@
         <v>25.81135742185824</v>
       </c>
       <c r="L42" t="n">
-        <v>25.81135742185824</v>
+        <v>29.73552654697952</v>
       </c>
       <c r="M42" t="n">
-        <v>25.81135742185824</v>
+        <v>29.73552654697952</v>
       </c>
       <c r="N42" t="n">
-        <v>25.81135742185824</v>
+        <v>29.73552654697952</v>
       </c>
       <c r="O42" t="n">
-        <v>25.81135742185824</v>
+        <v>29.73552654697952</v>
       </c>
       <c r="P42" t="n">
-        <v>25.81135742185824</v>
+        <v>29.73552654697952</v>
       </c>
       <c r="Q42" t="n">
-        <v>25.81135742185824</v>
+        <v>29.73552654697952</v>
       </c>
       <c r="R42" t="n">
-        <v>25.81135742185824</v>
+        <v>29.73552654697952</v>
       </c>
       <c r="S42" t="n">
-        <v>42.53013393702444</v>
+        <v>29.73552654697952</v>
       </c>
       <c r="T42" t="n">
-        <v>42.53013393702444</v>
+        <v>29.73552654697952</v>
       </c>
       <c r="U42" t="n">
         <v>42.53013393702444</v>
@@ -7567,16 +7567,16 @@
         <v>25.81135742185824</v>
       </c>
       <c r="J43" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="K43" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="L43" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="M43" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="N43" t="n">
         <v>105.2679480603287</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>761.1064616071313</v>
+        <v>761.1064616071315</v>
       </c>
       <c r="C44" t="n">
         <v>660.0433277140185</v>
@@ -7631,10 +7631,10 @@
         <v>571.5391208299475</v>
       </c>
       <c r="E44" t="n">
-        <v>448.9876892798071</v>
+        <v>448.9876892798065</v>
       </c>
       <c r="F44" t="n">
-        <v>294.3955127010026</v>
+        <v>294.3955127010022</v>
       </c>
       <c r="G44" t="n">
         <v>123.9754674333325</v>
@@ -7643,28 +7643,28 @@
         <v>25.81135742185824</v>
       </c>
       <c r="I44" t="n">
-        <v>33.69269639350451</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="J44" t="n">
-        <v>94.2747298170928</v>
+        <v>86.39339084544653</v>
       </c>
       <c r="K44" t="n">
-        <v>331.4043670248201</v>
+        <v>86.39339084544653</v>
       </c>
       <c r="L44" t="n">
-        <v>620.9856367041275</v>
+        <v>179.9557593586738</v>
       </c>
       <c r="M44" t="n">
-        <v>620.9856367041275</v>
+        <v>499.3713074541696</v>
       </c>
       <c r="N44" t="n">
-        <v>804.8581755597005</v>
+        <v>816.9334525296052</v>
       </c>
       <c r="O44" t="n">
-        <v>804.8581755597005</v>
+        <v>846.038766658064</v>
       </c>
       <c r="P44" t="n">
-        <v>1033.202780056421</v>
+        <v>1074.383371154785</v>
       </c>
       <c r="Q44" t="n">
         <v>1188.76108546305</v>
@@ -7691,7 +7691,7 @@
         <v>1019.759813266009</v>
       </c>
       <c r="Y44" t="n">
-        <v>886.2925682241377</v>
+        <v>886.2925682241378</v>
       </c>
     </row>
     <row r="45">
@@ -7728,37 +7728,37 @@
         <v>25.81135742185824</v>
       </c>
       <c r="K45" t="n">
-        <v>42.53013393702444</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="L45" t="n">
-        <v>42.53013393702444</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="M45" t="n">
-        <v>42.53013393702444</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="N45" t="n">
-        <v>42.53013393702444</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="O45" t="n">
-        <v>42.53013393702444</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="P45" t="n">
-        <v>42.53013393702444</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.53013393702444</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="R45" t="n">
-        <v>42.53013393702444</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="S45" t="n">
-        <v>42.53013393702444</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="T45" t="n">
-        <v>42.53013393702444</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="U45" t="n">
-        <v>42.53013393702444</v>
+        <v>38.60596481190316</v>
       </c>
       <c r="V45" t="n">
         <v>42.53013393702444</v>
@@ -7822,7 +7822,7 @@
         <v>25.81135742185824</v>
       </c>
       <c r="P46" t="n">
-        <v>105.2679480603287</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Q46" t="n">
         <v>105.2679480603287</v>
@@ -8690,28 +8690,28 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>37.73217453057934</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>228.2911288462876</v>
       </c>
       <c r="M11" t="n">
-        <v>214.9908843158649</v>
+        <v>257.4849097117384</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>248.7992025469765</v>
       </c>
       <c r="O11" t="n">
-        <v>81.72797863606147</v>
+        <v>34.41704868367506</v>
       </c>
       <c r="P11" t="n">
-        <v>208.5255628951208</v>
+        <v>2.591255098870569</v>
       </c>
       <c r="Q11" t="n">
-        <v>47.66134577965715</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R11" t="n">
-        <v>42.58424007769262</v>
+        <v>13.95596428625018</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>11.95226845920264</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>71.37210586485475</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
-        <v>246.456808229429</v>
+        <v>228.2911288462877</v>
       </c>
       <c r="M14" t="n">
-        <v>32.04872274174379</v>
+        <v>17.67956378814737</v>
       </c>
       <c r="N14" t="n">
-        <v>212.7839583354216</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>217.3592102577954</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>45.08528049474412</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.167320383784102</v>
+        <v>115.4230996431977</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>155.6389923271522</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L26" t="n">
         <v>270.6444670286918</v>
@@ -9948,31 +9948,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>55.45787473710711</v>
       </c>
       <c r="N27" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>109.1683344890643</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10030,28 +10030,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K28" t="n">
-        <v>16.75924528702248</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>246.758517458259</v>
       </c>
       <c r="P29" t="n">
-        <v>24.30765795701436</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>31.96589455991418</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10185,34 +10185,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>125.3490926623394</v>
       </c>
       <c r="M30" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>125.0272939704079</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,16 +10270,16 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K31" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>105.2836065989273</v>
       </c>
       <c r="M31" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>105.6509998050918</v>
@@ -10352,7 +10352,7 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L32" t="n">
-        <v>63.60820589061682</v>
+        <v>245.6701038820607</v>
       </c>
       <c r="M32" t="n">
         <v>291.2847697033555</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>125.3490926623394</v>
@@ -10437,19 +10437,19 @@
         <v>122.422560448506</v>
       </c>
       <c r="N33" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>159.7351325352404</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,19 +10507,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10586,22 +10586,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>163.1772180655864</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>287.4798572620959</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N35" t="n">
-        <v>212.7839583354218</v>
+        <v>105.8606300586086</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q35" t="n">
         <v>137.5801139476182</v>
@@ -10665,28 +10665,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>128.606658989524</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>125.3490926623394</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>124.7942665135312</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O36" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10756,13 +10756,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>291.2847697033555</v>
+        <v>287.4798572620959</v>
       </c>
       <c r="N38" t="n">
-        <v>283.4008070189657</v>
+        <v>172.7109928782939</v>
       </c>
       <c r="O38" t="n">
         <v>246.758517458259</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
       </c>
       <c r="R38" t="n">
-        <v>39.43983246036865</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,28 +10896,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>126.09543989585</v>
       </c>
       <c r="P39" t="n">
-        <v>141.9149470160303</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10981,13 +10981,13 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>55.70223502026096</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0462273461148</v>
+        <v>119.3058302458169</v>
       </c>
       <c r="L41" t="n">
         <v>270.6444670286918</v>
@@ -11075,13 +11075,13 @@
         <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>125.3490926623394</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>107.9066134679088</v>
+        <v>39.34910490369715</v>
       </c>
       <c r="O42" t="n">
         <v>126.09543989585</v>
       </c>
       <c r="P42" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11218,16 +11218,16 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>115.6742602693208</v>
       </c>
       <c r="N43" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>105.6509998050918</v>
@@ -11297,19 +11297,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461148</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>270.6444670286918</v>
+        <v>72.64557696194436</v>
       </c>
       <c r="M44" t="n">
-        <v>214.9908843158649</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N44" t="n">
-        <v>159.8189678290454</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O44" t="n">
-        <v>217.3592102577956</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P44" t="n">
         <v>208.5255628951208</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>125.0272939704079</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11452,10 +11452,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11464,16 +11464,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.6510534078393</v>
+        <v>148.6510534078394</v>
       </c>
       <c r="C11" t="n">
-        <v>124.7693104111848</v>
+        <v>124.7693104111849</v>
       </c>
       <c r="D11" t="n">
-        <v>112.3359726722333</v>
+        <v>99.62404296054983</v>
       </c>
       <c r="E11" t="n">
-        <v>107.5926293848824</v>
+        <v>146.0427250916422</v>
       </c>
       <c r="F11" t="n">
-        <v>177.7630626700195</v>
+        <v>135.2690372741461</v>
       </c>
       <c r="G11" t="n">
-        <v>150.938627276123</v>
+        <v>193.4326526719961</v>
       </c>
       <c r="H11" t="n">
-        <v>79.40525137248956</v>
+        <v>121.8992767683626</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>16.75585940079478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>95.44359663915799</v>
+        <v>52.9495712432846</v>
       </c>
       <c r="W11" t="n">
-        <v>112.4602768557729</v>
+        <v>69.9662514598995</v>
       </c>
       <c r="X11" t="n">
-        <v>134.3465273247121</v>
+        <v>134.3465273247122</v>
       </c>
       <c r="Y11" t="n">
         <v>156.8493804484559</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>20.72709493087755</v>
+        <v>20.72709493087715</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>22.3804947234683</v>
+        <v>22.3804947234679</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>135.9391236961576</v>
+        <v>148.6510534078394</v>
       </c>
       <c r="C14" t="n">
-        <v>82.27528501531188</v>
+        <v>124.7693104111848</v>
       </c>
       <c r="D14" t="n">
-        <v>112.3359726722333</v>
+        <v>69.84194727635983</v>
       </c>
       <c r="E14" t="n">
         <v>146.0427250916422</v>
       </c>
       <c r="F14" t="n">
-        <v>177.7630626700195</v>
+        <v>140.3343251013342</v>
       </c>
       <c r="G14" t="n">
-        <v>150.9386272761231</v>
+        <v>193.4326526719961</v>
       </c>
       <c r="H14" t="n">
-        <v>79.40525137248963</v>
+        <v>121.8992767683626</v>
       </c>
       <c r="I14" t="n">
-        <v>16.75585940079473</v>
+        <v>16.75585940079478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>24.7168078570031</v>
       </c>
       <c r="V14" t="n">
-        <v>95.44359663915807</v>
+        <v>52.94957124328457</v>
       </c>
       <c r="W14" t="n">
-        <v>112.4602768557729</v>
+        <v>69.96625145989947</v>
       </c>
       <c r="X14" t="n">
         <v>134.3465273247122</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>20.72709493087764</v>
+        <v>20.72709493087713</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>22.38049472346839</v>
+        <v>22.38049472346788</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,22 +23732,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>12.30903355541193</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>33.58244823586926</v>
       </c>
       <c r="F17" t="n">
-        <v>34.42364218040326</v>
+        <v>22.80876041837314</v>
       </c>
       <c r="G17" t="n">
-        <v>80.97237581622312</v>
+        <v>38.47835042034967</v>
       </c>
       <c r="H17" t="n">
-        <v>9.438999912589679</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.895078196810005</v>
+        <v>44.16957058684426</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36.19077655206644</v>
+        <v>23.92391531744101</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>22.80876041837359</v>
+        <v>65.30278581424659</v>
       </c>
       <c r="G20" t="n">
-        <v>78.14451449418806</v>
+        <v>38.47835042034965</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.438999912589663</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.895078196810005</v>
+        <v>1.895078196809528</v>
       </c>
     </row>
     <row r="21">
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.571109639633676</v>
+        <v>3.571109639633505</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822755.5558622829</v>
+        <v>822755.5558622832</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822755.5558622829</v>
+        <v>822755.5558622832</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>872651.0341374857</v>
+        <v>872651.0341374859</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>872651.0341374857</v>
+        <v>872651.0341374859</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>986835.702067567</v>
+        <v>986835.7020675673</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>986835.7020675669</v>
+        <v>986835.7020675674</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>986835.7020675668</v>
+        <v>986835.7020675672</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>963351.3156002248</v>
+        <v>963351.3156002243</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>963351.3156002248</v>
+        <v>963351.3156002243</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>661448.9963823446</v>
+        <v>661448.9963823447</v>
       </c>
       <c r="C2" t="n">
-        <v>661448.9963823447</v>
+        <v>661448.9963823449</v>
       </c>
       <c r="D2" t="n">
-        <v>661448.9963823447</v>
+        <v>661448.9963823449</v>
       </c>
       <c r="E2" t="n">
-        <v>578399.8004288898</v>
+        <v>578399.80042889</v>
       </c>
       <c r="F2" t="n">
         <v>578399.8004288905</v>
       </c>
       <c r="G2" t="n">
-        <v>654488.2756031133</v>
+        <v>654488.2756031136</v>
       </c>
       <c r="H2" t="n">
-        <v>654488.2756031133</v>
+        <v>654488.2756031136</v>
       </c>
       <c r="I2" t="n">
         <v>662575.7163984154</v>
       </c>
       <c r="J2" t="n">
+        <v>662788.9116439018</v>
+      </c>
+      <c r="K2" t="n">
+        <v>662788.9116439021</v>
+      </c>
+      <c r="L2" t="n">
         <v>662788.911643902</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>662788.9116439014</v>
+      </c>
+      <c r="N2" t="n">
+        <v>662788.9116439017</v>
+      </c>
+      <c r="O2" t="n">
         <v>662788.9116439013</v>
       </c>
-      <c r="L2" t="n">
-        <v>662788.9116439017</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>662788.9116439013</v>
-      </c>
-      <c r="N2" t="n">
-        <v>662788.9116439011</v>
-      </c>
-      <c r="O2" t="n">
-        <v>662788.9116439016</v>
-      </c>
-      <c r="P2" t="n">
-        <v>662788.9116439011</v>
       </c>
     </row>
     <row r="3">
@@ -26375,16 +26375,16 @@
         <v>268189.4957533075</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>89968.22148461836</v>
+        <v>89968.22148461833</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9282.568375648894</v>
+        <v>9282.568375648811</v>
       </c>
       <c r="J3" t="n">
         <v>174799.9769962072</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89968.22148461838</v>
+        <v>89968.22148461829</v>
       </c>
       <c r="M3" t="n">
-        <v>10638.26229000076</v>
+        <v>10638.26229000094</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>99515.91208697848</v>
+        <v>99515.91208697841</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>503377.7457368798</v>
       </c>
       <c r="E4" t="n">
-        <v>412276.999431043</v>
+        <v>412276.9994310431</v>
       </c>
       <c r="F4" t="n">
-        <v>412276.9994310429</v>
+        <v>412276.9994310432</v>
       </c>
       <c r="G4" t="n">
-        <v>465631.4922360423</v>
+        <v>465631.4922360425</v>
       </c>
       <c r="H4" t="n">
         <v>465631.4922360424</v>
       </c>
       <c r="I4" t="n">
-        <v>471927.6879885276</v>
+        <v>471927.6879885277</v>
       </c>
       <c r="J4" t="n">
-        <v>482258.3294266118</v>
+        <v>482258.3294266119</v>
       </c>
       <c r="K4" t="n">
         <v>482258.3294266119</v>
@@ -26448,7 +26448,7 @@
         <v>482258.3294266119</v>
       </c>
       <c r="M4" t="n">
-        <v>480027.6217719744</v>
+        <v>480027.6217719743</v>
       </c>
       <c r="N4" t="n">
         <v>480027.6217719744</v>
@@ -26476,31 +26476,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23575.06998390376</v>
+        <v>23575.06998390378</v>
       </c>
       <c r="F5" t="n">
-        <v>23575.06998390376</v>
+        <v>23575.06998390378</v>
       </c>
       <c r="G5" t="n">
-        <v>33029.49299889173</v>
+        <v>33029.49299889176</v>
       </c>
       <c r="H5" t="n">
-        <v>33029.49299889173</v>
+        <v>33029.49299889176</v>
       </c>
       <c r="I5" t="n">
-        <v>35151.85323835929</v>
+        <v>35151.8532383593</v>
       </c>
       <c r="J5" t="n">
-        <v>44151.68385367381</v>
+        <v>44151.68385367384</v>
       </c>
       <c r="K5" t="n">
-        <v>44151.68385367381</v>
+        <v>44151.68385367384</v>
       </c>
       <c r="L5" t="n">
-        <v>44151.68385367382</v>
+        <v>44151.68385367383</v>
       </c>
       <c r="M5" t="n">
-        <v>42685.98220017733</v>
+        <v>42685.98220017734</v>
       </c>
       <c r="N5" t="n">
         <v>42685.98220017733</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124443.6506454648</v>
+        <v>124439.1842612597</v>
       </c>
       <c r="C6" t="n">
-        <v>124443.6506454649</v>
+        <v>124439.1842612598</v>
       </c>
       <c r="D6" t="n">
-        <v>124443.6506454649</v>
+        <v>124439.1842612598</v>
       </c>
       <c r="E6" t="n">
-        <v>-125641.7647393645</v>
+        <v>-125923.0617767478</v>
       </c>
       <c r="F6" t="n">
-        <v>142547.731013944</v>
+        <v>142266.4339765601</v>
       </c>
       <c r="G6" t="n">
-        <v>65859.0688835609</v>
+        <v>65831.40009675837</v>
       </c>
       <c r="H6" t="n">
-        <v>155827.2903681792</v>
+        <v>155799.6215813768</v>
       </c>
       <c r="I6" t="n">
-        <v>146213.6067958795</v>
+        <v>146212.8961450613</v>
       </c>
       <c r="J6" t="n">
-        <v>-38421.07863259083</v>
+        <v>-38421.07863259109</v>
       </c>
       <c r="K6" t="n">
-        <v>136378.8983636156</v>
+        <v>136378.8983636163</v>
       </c>
       <c r="L6" t="n">
-        <v>46410.67687899763</v>
+        <v>46410.67687899798</v>
       </c>
       <c r="M6" t="n">
         <v>129437.0453817488</v>
       </c>
       <c r="N6" t="n">
-        <v>140075.3076717494</v>
+        <v>140075.30767175</v>
       </c>
       <c r="O6" t="n">
-        <v>40559.39558477147</v>
+        <v>40559.39558477112</v>
       </c>
       <c r="P6" t="n">
-        <v>140075.3076717494</v>
+        <v>140075.3076717496</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>225.4361869699939</v>
+      </c>
+      <c r="F2" t="n">
         <v>225.436186969994</v>
-      </c>
-      <c r="F2" t="n">
-        <v>225.4361869699939</v>
       </c>
       <c r="G2" t="n">
         <v>337.8964638257669</v>
@@ -26707,19 +26707,19 @@
         <v>337.8964638257669</v>
       </c>
       <c r="J2" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="K2" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="L2" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="M2" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="N2" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="O2" t="n">
         <v>250.1529948269971</v>
@@ -26747,7 +26747,7 @@
         <v>93.54304758964463</v>
       </c>
       <c r="F3" t="n">
-        <v>93.54304758964493</v>
+        <v>93.5430475896444</v>
       </c>
       <c r="G3" t="n">
         <v>93.54304758964463</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="F4" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="G4" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="H4" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="I4" t="n">
-        <v>77.40126617658943</v>
+        <v>77.40126617658959</v>
       </c>
       <c r="J4" t="n">
-        <v>365.135993169101</v>
+        <v>365.1359931691015</v>
       </c>
       <c r="K4" t="n">
-        <v>365.135993169101</v>
+        <v>365.1359931691015</v>
       </c>
       <c r="L4" t="n">
-        <v>365.135993169101</v>
+        <v>365.1359931691015</v>
       </c>
       <c r="M4" t="n">
-        <v>322.641967773228</v>
+        <v>322.6419677732281</v>
       </c>
       <c r="N4" t="n">
         <v>322.641967773228</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="F2" t="n">
-        <v>-8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>112.4602768557729</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>124.3948901087231</v>
+        <v>124.394890108723</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>112.460276855773</v>
+        <v>112.4602768557729</v>
       </c>
       <c r="M2" t="n">
-        <v>13.29782786250095</v>
+        <v>13.29782786250118</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>124.3948901087231</v>
+        <v>124.394890108723</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34.90724078071644</v>
+        <v>34.90724078071612</v>
       </c>
       <c r="J4" t="n">
-        <v>287.7347269925116</v>
+        <v>287.7347269925119</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>112.4602768557729</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>124.3948901087231</v>
+        <v>124.394890108723</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="C11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="D11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="E11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="F11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="G11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="H11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="I11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="J11" t="n">
-        <v>79.38441504035356</v>
+        <v>121.878440436227</v>
       </c>
       <c r="K11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>212.7839583354218</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>178.1252570176071</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="P11" t="n">
-        <v>31.65069845914894</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.436186969994</v>
+        <v>93.02339340615995</v>
       </c>
       <c r="R11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="S11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="T11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="U11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="V11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="W11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="X11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="Y11" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>203.9168021932001</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28199,7 +28199,7 @@
         <v>125.3490926623394</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N12" t="n">
         <v>107.9066134679088</v>
@@ -28208,10 +28208,10 @@
         <v>126.09543989585</v>
       </c>
       <c r="P12" t="n">
-        <v>167.5213193662809</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q12" t="n">
-        <v>172.2603282460562</v>
+        <v>187.5880458463951</v>
       </c>
       <c r="R12" t="n">
         <v>165.2365855749133</v>
@@ -28223,13 +28223,13 @@
         <v>215.0370598435168</v>
       </c>
       <c r="U12" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="V12" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="W12" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
@@ -28266,22 +28266,22 @@
         <v>165.9467011478387</v>
       </c>
       <c r="I13" t="n">
-        <v>176.1263446720297</v>
+        <v>207.760674399844</v>
       </c>
       <c r="J13" t="n">
-        <v>143.0084423346753</v>
+        <v>185.5024677305487</v>
       </c>
       <c r="K13" t="n">
         <v>137.7981397517309</v>
       </c>
       <c r="L13" t="n">
-        <v>139.4805673535853</v>
+        <v>127.5282988943827</v>
       </c>
       <c r="M13" t="n">
         <v>143.0474437998775</v>
       </c>
       <c r="N13" t="n">
-        <v>172.4571089864659</v>
+        <v>129.9630835905929</v>
       </c>
       <c r="O13" t="n">
         <v>145.0742342239729</v>
@@ -28290,25 +28290,25 @@
         <v>147.6265796099169</v>
       </c>
       <c r="Q13" t="n">
-        <v>213.2051271977606</v>
+        <v>202.9585027554426</v>
       </c>
       <c r="R13" t="n">
-        <v>225.436186969994</v>
+        <v>204.0484816844984</v>
       </c>
       <c r="S13" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="T13" t="n">
         <v>223.8203341576757</v>
       </c>
       <c r="U13" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="V13" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="W13" t="n">
-        <v>225.436186969994</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="X13" t="n">
         <v>221.9194554082425</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="C14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="D14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="E14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="F14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="G14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="H14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="I14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="J14" t="n">
-        <v>225.4361869699939</v>
+        <v>79.38441504035364</v>
       </c>
       <c r="K14" t="n">
-        <v>149.3022302398455</v>
+        <v>10.62810875858573</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>225.436186969994</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>13.0947181954102</v>
       </c>
       <c r="P14" t="n">
-        <v>61.99590456961656</v>
+        <v>225.436186969994</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.4361869699939</v>
+        <v>157.674433106454</v>
       </c>
       <c r="R14" t="n">
-        <v>225.4361869699939</v>
+        <v>196.8079111785516</v>
       </c>
       <c r="S14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="T14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="U14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="V14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="W14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="X14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="Y14" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>225.436186969994</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28418,61 +28418,61 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>173.8754195541826</v>
+        <v>148.761012594616</v>
       </c>
       <c r="H15" t="n">
-        <v>125.893992481459</v>
+        <v>125.8939924814591</v>
       </c>
       <c r="I15" t="n">
         <v>114.4898231888801</v>
       </c>
       <c r="J15" t="n">
-        <v>135.7323687962716</v>
+        <v>135.7323687962717</v>
       </c>
       <c r="K15" t="n">
-        <v>135.676231179775</v>
+        <v>159.2952563950315</v>
       </c>
       <c r="L15" t="n">
-        <v>167.8431180582122</v>
+        <v>125.3490926623395</v>
       </c>
       <c r="M15" t="n">
-        <v>122.4225604485059</v>
+        <v>122.4225604485062</v>
       </c>
       <c r="N15" t="n">
-        <v>107.9066134679086</v>
+        <v>107.9066134679089</v>
       </c>
       <c r="O15" t="n">
-        <v>126.0954398958499</v>
+        <v>126.0954398958501</v>
       </c>
       <c r="P15" t="n">
-        <v>125.0272939704078</v>
+        <v>125.027293970408</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.0940204505215</v>
+        <v>145.0940204505216</v>
       </c>
       <c r="R15" t="n">
-        <v>165.2365855749132</v>
+        <v>165.2365855749133</v>
       </c>
       <c r="S15" t="n">
-        <v>191.8955649522593</v>
+        <v>191.8955649522594</v>
       </c>
       <c r="T15" t="n">
         <v>215.0370598435168</v>
       </c>
       <c r="U15" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="V15" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="W15" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>225.436186969994</v>
       </c>
       <c r="Y15" t="n">
-        <v>225.4361869699939</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -28494,7 +28494,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>181.4209076143196</v>
+        <v>181.4209076143201</v>
       </c>
       <c r="G16" t="n">
         <v>168.7145309437669</v>
@@ -28506,49 +28506,49 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J16" t="n">
-        <v>148.7355536286649</v>
+        <v>143.0084423346753</v>
       </c>
       <c r="K16" t="n">
-        <v>137.7981397517308</v>
+        <v>68.62817916039609</v>
       </c>
       <c r="L16" t="n">
-        <v>139.4805673535853</v>
+        <v>139.4805673535854</v>
       </c>
       <c r="M16" t="n">
-        <v>185.5414691957504</v>
+        <v>185.541469195751</v>
       </c>
       <c r="N16" t="n">
-        <v>129.9630835905928</v>
+        <v>129.9630835905929</v>
       </c>
       <c r="O16" t="n">
-        <v>145.0742342239728</v>
+        <v>177.3216351775279</v>
       </c>
       <c r="P16" t="n">
-        <v>147.6265796099169</v>
+        <v>147.626579609917</v>
       </c>
       <c r="Q16" t="n">
         <v>170.7111018018876</v>
       </c>
       <c r="R16" t="n">
-        <v>225.4361869699939</v>
+        <v>204.0484816844984</v>
       </c>
       <c r="S16" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4361869699939</v>
+        <v>223.8203341576757</v>
       </c>
       <c r="U16" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="V16" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="W16" t="n">
-        <v>225.4361869699939</v>
+        <v>225.436186969994</v>
       </c>
       <c r="X16" t="n">
-        <v>225.4361869699939</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
         <v>217.1412728141684</v>
@@ -28588,10 +28588,10 @@
         <v>188.9590216718574</v>
       </c>
       <c r="K17" t="n">
-        <v>263.1683615005734</v>
+        <v>220.6743361047004</v>
       </c>
       <c r="L17" t="n">
-        <v>228.2911288462876</v>
+        <v>269.0682239231359</v>
       </c>
       <c r="M17" t="n">
         <v>214.9908843158649</v>
@@ -28603,7 +28603,7 @@
         <v>217.3592102577956</v>
       </c>
       <c r="P17" t="n">
-        <v>270.5214674647375</v>
+        <v>270.521467464738</v>
       </c>
       <c r="Q17" t="n">
         <v>230.6035073537782</v>
@@ -28612,16 +28612,16 @@
         <v>239.3921512562441</v>
       </c>
       <c r="S17" t="n">
-        <v>251.9762263741753</v>
+        <v>270.7098369098157</v>
       </c>
       <c r="T17" t="n">
-        <v>222.6001247886366</v>
+        <v>265.0941501845101</v>
       </c>
       <c r="U17" t="n">
-        <v>292.6470202228701</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="V17" t="n">
-        <v>337.8964638257669</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -28819,13 +28819,13 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I20" t="n">
-        <v>242.1920463707887</v>
+        <v>265.9524612310221</v>
       </c>
       <c r="J20" t="n">
         <v>188.9590216718574</v>
       </c>
       <c r="K20" t="n">
-        <v>220.6743361047004</v>
+        <v>263.1683615005738</v>
       </c>
       <c r="L20" t="n">
         <v>228.2911288462876</v>
@@ -28834,28 +28834,28 @@
         <v>214.9908843158649</v>
       </c>
       <c r="N20" t="n">
-        <v>212.7839583354218</v>
+        <v>255.2779837312952</v>
       </c>
       <c r="O20" t="n">
         <v>217.3592102577956</v>
       </c>
       <c r="P20" t="n">
-        <v>228.0274420688645</v>
+        <v>270.521467464738</v>
       </c>
       <c r="Q20" t="n">
         <v>230.6035073537782</v>
       </c>
       <c r="R20" t="n">
-        <v>281.8861766521171</v>
+        <v>239.3921512562441</v>
       </c>
       <c r="S20" t="n">
-        <v>251.9762263741753</v>
+        <v>228.2158115139423</v>
       </c>
       <c r="T20" t="n">
-        <v>265.0941501845097</v>
+        <v>222.6001247886366</v>
       </c>
       <c r="U20" t="n">
-        <v>292.6470202228701</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="V20" t="n">
         <v>337.8964638257669</v>
@@ -29074,28 +29074,28 @@
         <v>212.7839583354218</v>
       </c>
       <c r="O23" t="n">
-        <v>217.3592102577956</v>
+        <v>294.7604764343852</v>
       </c>
       <c r="P23" t="n">
-        <v>302.3013843595311</v>
+        <v>305.4287082454541</v>
       </c>
       <c r="Q23" t="n">
-        <v>308.0047735303676</v>
+        <v>230.6035073537782</v>
       </c>
       <c r="R23" t="n">
-        <v>316.7934174328336</v>
+        <v>316.7934174328337</v>
       </c>
       <c r="S23" t="n">
-        <v>305.6170776905317</v>
+        <v>228.2158115139423</v>
       </c>
       <c r="T23" t="n">
-        <v>222.6001247886366</v>
+        <v>279.8573868626885</v>
       </c>
       <c r="U23" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="C26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="D26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="E26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="F26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="G26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="H26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="I26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="J26" t="n">
-        <v>236.855166964496</v>
+        <v>182.4479319455357</v>
       </c>
       <c r="K26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="L26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="M26" t="n">
-        <v>236.855166964496</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="P26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="Q26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="R26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="S26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="T26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="U26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="V26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="W26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="X26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
     </row>
     <row r="27">
@@ -29363,7 +29363,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>193.5312776847612</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.761012594616</v>
@@ -29372,31 +29372,31 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I27" t="n">
-        <v>114.4898231888801</v>
+        <v>107.9283390365971</v>
       </c>
       <c r="J27" t="n">
         <v>135.7323687962717</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L27" t="n">
         <v>125.3490926623394</v>
       </c>
       <c r="M27" t="n">
-        <v>122.422560448506</v>
+        <v>66.96468571139893</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>160.8032784606831</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.92568596145721</v>
+        <v>8.963937997691364</v>
       </c>
       <c r="R27" t="n">
         <v>165.2365855749133</v>
@@ -29408,13 +29408,13 @@
         <v>215.0370598435168</v>
       </c>
       <c r="U27" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="V27" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="W27" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.7145309437669</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="H28" t="n">
         <v>165.9467011478387</v>
@@ -29454,28 +29454,28 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J28" t="n">
-        <v>143.0084423346753</v>
+        <v>121.2121579575505</v>
       </c>
       <c r="K28" t="n">
-        <v>236.855166964496</v>
+        <v>68.62817916039604</v>
       </c>
       <c r="L28" t="n">
-        <v>139.4805673535853</v>
+        <v>34.19696075465806</v>
       </c>
       <c r="M28" t="n">
-        <v>143.0474437998775</v>
+        <v>27.37318353055668</v>
       </c>
       <c r="N28" t="n">
-        <v>129.9630835905929</v>
+        <v>18.62520307538163</v>
       </c>
       <c r="O28" t="n">
-        <v>145.0742342239729</v>
+        <v>179.7150378962114</v>
       </c>
       <c r="P28" t="n">
-        <v>147.6265796099169</v>
+        <v>60.14232658241831</v>
       </c>
       <c r="Q28" t="n">
-        <v>170.7111018018876</v>
+        <v>128.3688647731046</v>
       </c>
       <c r="R28" t="n">
         <v>204.0484816844984</v>
@@ -29484,16 +29484,16 @@
         <v>235.6777742193615</v>
       </c>
       <c r="T28" t="n">
-        <v>223.8203341576757</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="U28" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="V28" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="W28" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="C29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="D29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="E29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="F29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="G29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="H29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="I29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="J29" t="n">
-        <v>236.8551669644961</v>
+        <v>79.38441504035356</v>
       </c>
       <c r="K29" t="n">
-        <v>236.8551669644961</v>
+        <v>10.62810875858561</v>
       </c>
       <c r="L29" t="n">
-        <v>236.8551669644961</v>
+        <v>212.30466971016</v>
       </c>
       <c r="M29" t="n">
-        <v>76.83453229892798</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="N29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="O29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="P29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="Q29" t="n">
-        <v>230.6035073537782</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="R29" t="n">
-        <v>196.8079111785515</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="S29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="T29" t="n">
-        <v>236.8551669644961</v>
+        <v>222.6001247886366</v>
       </c>
       <c r="U29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="V29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="W29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="X29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
     </row>
     <row r="30">
@@ -29609,49 +29609,49 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I30" t="n">
-        <v>114.4898231888801</v>
+        <v>107.9283390365971</v>
       </c>
       <c r="J30" t="n">
-        <v>170.4402073611043</v>
+        <v>54.02537789568677</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>120.7963449117628</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>145.0940204505216</v>
+        <v>8.963937997691364</v>
       </c>
       <c r="R30" t="n">
-        <v>165.2365855749133</v>
+        <v>135.7385435371774</v>
       </c>
       <c r="S30" t="n">
         <v>191.8955649522593</v>
       </c>
       <c r="T30" t="n">
-        <v>215.0370598435168</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="U30" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="V30" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="W30" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
@@ -29694,19 +29694,19 @@
         <v>121.2121579575505</v>
       </c>
       <c r="K31" t="n">
-        <v>68.62817916039604</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L31" t="n">
         <v>34.19696075465806</v>
       </c>
       <c r="M31" t="n">
-        <v>27.37318353055668</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="N31" t="n">
-        <v>18.62520307538163</v>
+        <v>129.9630835905929</v>
       </c>
       <c r="O31" t="n">
-        <v>155.2395069186683</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P31" t="n">
         <v>60.14232658241831</v>
@@ -29715,7 +29715,7 @@
         <v>128.3688647731046</v>
       </c>
       <c r="R31" t="n">
-        <v>204.0484816844984</v>
+        <v>226.0570310196678</v>
       </c>
       <c r="S31" t="n">
         <v>235.6777742193615</v>
@@ -29724,13 +29724,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U31" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="V31" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="W31" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="C32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="D32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="E32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="F32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="G32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="H32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="I32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="J32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="K32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="L32" t="n">
-        <v>164.6829229556707</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="M32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="N32" t="n">
-        <v>236.8551669644961</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>10.61438391361652</v>
       </c>
       <c r="P32" t="n">
-        <v>224.801270127937</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="Q32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="R32" t="n">
-        <v>236.8551669644961</v>
+        <v>196.8079111785515</v>
       </c>
       <c r="S32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="T32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="U32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="V32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="W32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="X32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
     </row>
     <row r="33">
@@ -29843,16 +29843,16 @@
         <v>148.761012594616</v>
       </c>
       <c r="H33" t="n">
-        <v>125.8939924814591</v>
+        <v>160.6018310462924</v>
       </c>
       <c r="I33" t="n">
-        <v>114.4898231888801</v>
+        <v>107.9283390365971</v>
       </c>
       <c r="J33" t="n">
         <v>135.7323687962717</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -29861,10 +29861,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>145.0940204505216</v>
       </c>
       <c r="R33" t="n">
-        <v>165.2365855749133</v>
+        <v>135.7385435371774</v>
       </c>
       <c r="S33" t="n">
         <v>191.8955649522593</v>
@@ -29882,13 +29882,13 @@
         <v>215.0370598435168</v>
       </c>
       <c r="U33" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="V33" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="W33" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -29916,7 +29916,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="G34" t="n">
         <v>168.7145309437669</v>
@@ -29931,28 +29931,28 @@
         <v>143.0084423346753</v>
       </c>
       <c r="K34" t="n">
-        <v>68.62817916039604</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L34" t="n">
-        <v>34.19696075465806</v>
+        <v>139.4805673535853</v>
       </c>
       <c r="M34" t="n">
-        <v>143.0474437998775</v>
+        <v>27.37318353055668</v>
       </c>
       <c r="N34" t="n">
         <v>129.9630835905929</v>
       </c>
       <c r="O34" t="n">
-        <v>145.0742342239729</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P34" t="n">
-        <v>147.6265796099169</v>
+        <v>165.5145673636558</v>
       </c>
       <c r="Q34" t="n">
-        <v>236.8551669644961</v>
+        <v>128.3688647731046</v>
       </c>
       <c r="R34" t="n">
-        <v>211.3784519928941</v>
+        <v>204.0484816844984</v>
       </c>
       <c r="S34" t="n">
         <v>235.6777742193615</v>
@@ -29961,13 +29961,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U34" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="V34" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="W34" t="n">
-        <v>236.8551669644961</v>
+        <v>236.8551669644959</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="C35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="D35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="E35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="F35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="G35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="H35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="I35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="J35" t="n">
-        <v>250.1529948269971</v>
+        <v>79.38441504035356</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="L35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="M35" t="n">
-        <v>250.1529948269971</v>
+        <v>246.3480823857375</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>106.9233282768132</v>
       </c>
       <c r="O35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="P35" t="n">
-        <v>250.1529948269971</v>
+        <v>165.5270024379919</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="R35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="S35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="T35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="V35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="W35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="X35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="Y35" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>204.4058045699884</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30089,28 +30089,28 @@
         <v>135.7323687962717</v>
       </c>
       <c r="K36" t="n">
-        <v>7.069572190251097</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q36" t="n">
-        <v>145.0940204505216</v>
+        <v>8.963937997691364</v>
       </c>
       <c r="R36" t="n">
-        <v>165.2365855749133</v>
+        <v>135.7385435371774</v>
       </c>
       <c r="S36" t="n">
         <v>191.8955649522593</v>
@@ -30125,7 +30125,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30156,7 +30156,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>248.9737134068685</v>
+        <v>168.7145309437669</v>
       </c>
       <c r="H37" t="n">
         <v>165.9467011478387</v>
@@ -30168,10 +30168,10 @@
         <v>143.0084423346753</v>
       </c>
       <c r="K37" t="n">
-        <v>137.7981397517309</v>
+        <v>218.0573222148324</v>
       </c>
       <c r="L37" t="n">
-        <v>139.4805673535853</v>
+        <v>34.19696075465806</v>
       </c>
       <c r="M37" t="n">
         <v>143.0474437998775</v>
@@ -30180,13 +30180,13 @@
         <v>129.9630835905929</v>
       </c>
       <c r="O37" t="n">
-        <v>145.0742342239729</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P37" t="n">
-        <v>147.6265796099169</v>
+        <v>60.14232658241831</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.7111018018876</v>
+        <v>128.3688647731046</v>
       </c>
       <c r="R37" t="n">
         <v>204.0484816844984</v>
@@ -30198,13 +30198,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U37" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="C38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="D38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="E38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="F38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="G38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="H38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="I38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="J38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1529948269971</v>
+        <v>10.62810875858561</v>
       </c>
       <c r="L38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="M38" t="n">
-        <v>231.6973614215256</v>
+        <v>250.152994826997</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>250.152994826997</v>
       </c>
       <c r="O38" t="n">
-        <v>250.1529948269971</v>
+        <v>66.78751942758296</v>
       </c>
       <c r="P38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="R38" t="n">
-        <v>199.9523187958755</v>
+        <v>250.152994826997</v>
       </c>
       <c r="S38" t="n">
-        <v>228.2158115139423</v>
+        <v>250.152994826997</v>
       </c>
       <c r="T38" t="n">
-        <v>222.6001247886366</v>
+        <v>250.152994826997</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="V38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="W38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="X38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="Y38" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
     </row>
     <row r="39">
@@ -30320,34 +30320,34 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I39" t="n">
-        <v>107.9283390365971</v>
+        <v>114.4898231888801</v>
       </c>
       <c r="J39" t="n">
         <v>135.7323687962717</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L39" t="n">
-        <v>125.3490926623394</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>122.422560448506</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q39" t="n">
         <v>145.0940204505216</v>
       </c>
       <c r="R39" t="n">
-        <v>165.2365855749133</v>
+        <v>182.1242386205357</v>
       </c>
       <c r="S39" t="n">
         <v>191.8955649522593</v>
@@ -30362,7 +30362,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30405,16 +30405,16 @@
         <v>121.2121579575505</v>
       </c>
       <c r="K40" t="n">
-        <v>218.0573222148323</v>
+        <v>68.62817916039604</v>
       </c>
       <c r="L40" t="n">
-        <v>139.4805673535853</v>
+        <v>34.19696075465806</v>
       </c>
       <c r="M40" t="n">
-        <v>143.0474437998775</v>
+        <v>27.37318353055668</v>
       </c>
       <c r="N40" t="n">
-        <v>129.9630835905929</v>
+        <v>205.1782864111473</v>
       </c>
       <c r="O40" t="n">
         <v>145.0742342239729</v>
@@ -30435,13 +30435,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U40" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>250.152994826997</v>
       </c>
       <c r="W40" t="n">
-        <v>250.1529948269971</v>
+        <v>250.152994826997</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30478,7 +30478,7 @@
         <v>250.1529948269971</v>
       </c>
       <c r="I41" t="n">
-        <v>250.1529948269971</v>
+        <v>242.1920463707887</v>
       </c>
       <c r="J41" t="n">
         <v>250.1529948269971</v>
@@ -30490,22 +30490,22 @@
         <v>250.1529948269971</v>
       </c>
       <c r="M41" t="n">
-        <v>214.9908843158649</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>250.1529948269971</v>
-      </c>
-      <c r="O41" t="n">
-        <v>168.5483684170177</v>
       </c>
       <c r="P41" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.1529948269971</v>
+        <v>93.02339340615995</v>
       </c>
       <c r="R41" t="n">
-        <v>250.1529948269971</v>
+        <v>196.8079111785515</v>
       </c>
       <c r="S41" t="n">
         <v>250.1529948269971</v>
@@ -30563,22 +30563,22 @@
         <v>135.7323687962717</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>129.3128998594316</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>68.55750856421162</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q42" t="n">
         <v>145.0940204505216</v>
@@ -30587,13 +30587,13 @@
         <v>165.2365855749133</v>
       </c>
       <c r="S42" t="n">
-        <v>208.7832179978818</v>
+        <v>191.8955649522593</v>
       </c>
       <c r="T42" t="n">
         <v>215.0370598435168</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2291489784668</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -30639,19 +30639,19 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J43" t="n">
-        <v>201.471340420652</v>
+        <v>121.2121579575505</v>
       </c>
       <c r="K43" t="n">
-        <v>137.7981397517309</v>
+        <v>68.62817916039604</v>
       </c>
       <c r="L43" t="n">
-        <v>34.19696075465806</v>
+        <v>139.4805673535853</v>
       </c>
       <c r="M43" t="n">
         <v>27.37318353055668</v>
       </c>
       <c r="N43" t="n">
-        <v>18.62520307538163</v>
+        <v>210.2222660536944</v>
       </c>
       <c r="O43" t="n">
         <v>39.42323441888101</v>
@@ -30715,22 +30715,22 @@
         <v>250.1529948269971</v>
       </c>
       <c r="I44" t="n">
-        <v>250.1529948269971</v>
+        <v>242.1920463707887</v>
       </c>
       <c r="J44" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1529948269971</v>
+        <v>220.6743361047004</v>
       </c>
       <c r="L44" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>246.3480823857375</v>
       </c>
       <c r="N44" t="n">
-        <v>238.6948277342278</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>250.1529948269971</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.1529948269971</v>
+        <v>208.5564381619835</v>
       </c>
       <c r="R44" t="n">
         <v>250.1529948269971</v>
@@ -30794,13 +30794,13 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I45" t="n">
-        <v>114.4898231888801</v>
+        <v>107.9283390365971</v>
       </c>
       <c r="J45" t="n">
-        <v>135.7323687962717</v>
+        <v>54.02537789568677</v>
       </c>
       <c r="K45" t="n">
-        <v>152.5638842253975</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>125.3490926623394</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.963937997691364</v>
+        <v>145.0940204505216</v>
       </c>
       <c r="R45" t="n">
         <v>165.2365855749133</v>
@@ -30830,10 +30830,10 @@
         <v>215.0370598435168</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2291489784668</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>244.6127281124944</v>
       </c>
       <c r="W45" t="n">
         <v>250.1529948269971</v>
@@ -30876,10 +30876,10 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J46" t="n">
-        <v>143.0084423346753</v>
+        <v>121.2121579575505</v>
       </c>
       <c r="K46" t="n">
-        <v>137.7981397517309</v>
+        <v>68.62817916039604</v>
       </c>
       <c r="L46" t="n">
         <v>139.4805673535853</v>
@@ -30888,16 +30888,16 @@
         <v>143.0474437998775</v>
       </c>
       <c r="N46" t="n">
-        <v>129.9630835905929</v>
+        <v>18.62520307538163</v>
       </c>
       <c r="O46" t="n">
-        <v>145.0742342239729</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P46" t="n">
-        <v>227.8857620730184</v>
+        <v>60.14232658241831</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.7111018018876</v>
+        <v>208.6280472362062</v>
       </c>
       <c r="R46" t="n">
         <v>204.0484816844984</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3760524526216878</v>
+        <v>0.3760524526216857</v>
       </c>
       <c r="H14" t="n">
-        <v>3.851247180411862</v>
+        <v>3.85124718041184</v>
       </c>
       <c r="I14" t="n">
-        <v>14.49776217969764</v>
+        <v>14.49776217969755</v>
       </c>
       <c r="J14" t="n">
-        <v>31.91698185070001</v>
+        <v>31.91698185069983</v>
       </c>
       <c r="K14" t="n">
-        <v>47.83528217017606</v>
+        <v>47.83528217017579</v>
       </c>
       <c r="L14" t="n">
-        <v>59.34389741709706</v>
+        <v>59.34389741709673</v>
       </c>
       <c r="M14" t="n">
-        <v>66.031520221408</v>
+        <v>66.03152022140763</v>
       </c>
       <c r="N14" t="n">
-        <v>67.09997925241937</v>
+        <v>67.099979252419</v>
       </c>
       <c r="O14" t="n">
-        <v>63.36060767666246</v>
+        <v>63.36060767666211</v>
       </c>
       <c r="P14" t="n">
-        <v>54.07681275256454</v>
+        <v>54.07681275256423</v>
       </c>
       <c r="Q14" t="n">
-        <v>40.60943429305033</v>
+        <v>40.60943429305009</v>
       </c>
       <c r="R14" t="n">
-        <v>23.62220487699712</v>
+        <v>23.62220487699699</v>
       </c>
       <c r="S14" t="n">
-        <v>8.569295264116722</v>
+        <v>8.569295264116672</v>
       </c>
       <c r="T14" t="n">
-        <v>1.646169611351439</v>
+        <v>1.64616961135143</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03008419620973503</v>
+        <v>0.03008419620973486</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2012058004758401</v>
+        <v>0.2012058004758389</v>
       </c>
       <c r="H15" t="n">
-        <v>1.943224441437719</v>
+        <v>1.943224441437708</v>
       </c>
       <c r="I15" t="n">
-        <v>6.927480411119932</v>
+        <v>6.927480411119893</v>
       </c>
       <c r="J15" t="n">
-        <v>19.00953573706171</v>
+        <v>19.00953573706161</v>
       </c>
       <c r="K15" t="n">
-        <v>32.49032436894299</v>
+        <v>32.49032436894282</v>
       </c>
       <c r="L15" t="n">
-        <v>43.68725066910729</v>
+        <v>43.68725066910704</v>
       </c>
       <c r="M15" t="n">
-        <v>50.98096093635648</v>
+        <v>50.98096093635619</v>
       </c>
       <c r="N15" t="n">
-        <v>52.33027527375806</v>
+        <v>52.33027527375777</v>
       </c>
       <c r="O15" t="n">
-        <v>47.87197832637234</v>
+        <v>47.87197832637207</v>
       </c>
       <c r="P15" t="n">
-        <v>38.42148307507511</v>
+        <v>38.42148307507489</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.68374393442478</v>
+        <v>25.68374393442463</v>
       </c>
       <c r="R15" t="n">
-        <v>12.49240926112278</v>
+        <v>12.4924092611227</v>
       </c>
       <c r="S15" t="n">
-        <v>3.737309495680623</v>
+        <v>3.737309495680602</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8110005729706006</v>
+        <v>0.811000572970596</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0132372237155158</v>
+        <v>0.01323722371551572</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1686841841780482</v>
+        <v>0.1686841841780473</v>
       </c>
       <c r="H16" t="n">
-        <v>1.499755746601193</v>
+        <v>1.499755746601185</v>
       </c>
       <c r="I16" t="n">
-        <v>5.072793466008942</v>
+        <v>5.072793466008914</v>
       </c>
       <c r="J16" t="n">
-        <v>11.92597182138801</v>
+        <v>11.92597182138794</v>
       </c>
       <c r="K16" t="n">
-        <v>19.59803521632232</v>
+        <v>19.59803521632221</v>
       </c>
       <c r="L16" t="n">
-        <v>25.07873770952546</v>
+        <v>25.07873770952532</v>
       </c>
       <c r="M16" t="n">
-        <v>26.44201261620077</v>
+        <v>26.44201261620062</v>
       </c>
       <c r="N16" t="n">
-        <v>25.8132806569917</v>
+        <v>25.81328065699156</v>
       </c>
       <c r="O16" t="n">
-        <v>23.8427426872754</v>
+        <v>23.84274268727527</v>
       </c>
       <c r="P16" t="n">
-        <v>20.4015853300432</v>
+        <v>20.40158533004309</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.12500018603638</v>
+        <v>14.1250001860363</v>
       </c>
       <c r="R16" t="n">
-        <v>7.584654317678421</v>
+        <v>7.584654317678378</v>
       </c>
       <c r="S16" t="n">
-        <v>2.939705282448348</v>
+        <v>2.939705282448332</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7207415142152968</v>
+        <v>0.7207415142152926</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009200955500620823</v>
+        <v>0.009200955500620771</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35407,37 +35407,37 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="K11" t="n">
-        <v>42.494025395873</v>
+        <v>4.761850865293567</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>36.01524421155477</v>
       </c>
       <c r="O11" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="P11" t="n">
-        <v>12.1488192854052</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>28.62827579144252</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.836062181357415</v>
+        <v>2.836062181357329</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -35462,7 +35462,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>27.1663077955344</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.16630779553463</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35562,10 +35562,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>10.85969566805919</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35586,10 +35586,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.494025395873</v>
+        <v>32.24740095355502</v>
       </c>
       <c r="R13" t="n">
-        <v>21.38770528549565</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,37 +35644,37 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>36.47716529813667</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>18.16567938314166</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>42.494025395873</v>
+        <v>28.12486644227623</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>12.65222863457204</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="P14" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="R14" t="n">
-        <v>28.62827579144251</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.836062181357335</v>
+        <v>2.836062181357354</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -35702,7 +35702,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>37.91803544562805</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -35714,7 +35714,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>25.11440695956656</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>23.61902521525637</v>
       </c>
       <c r="L15" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35765,10 +35765,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>8.123272530523366</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.051900835968326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -35790,7 +35790,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>5.727111293989696</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>32.24740095355497</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35826,13 +35826,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.38770528549559</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.615852812318286</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -35844,7 +35844,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>3.516731561751413</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>40.77709507684828</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>42.494025395873</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35908,16 +35908,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>23.76041486023296</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="U17" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>17.01668021661487</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>23.76041486023342</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36130,28 +36130,28 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>42.49402539587347</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>23.76041486023296</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>42.494025395873</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>17.01668021661487</v>
@@ -36370,28 +36370,28 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>77.40126617658959</v>
       </c>
       <c r="P23" t="n">
-        <v>74.27394229066662</v>
+        <v>77.40126617658959</v>
       </c>
       <c r="Q23" t="n">
-        <v>77.40126617658943</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>77.40126617658943</v>
+        <v>77.40126617658959</v>
       </c>
       <c r="S23" t="n">
-        <v>77.40126617658943</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>57.25726207405188</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36592,37 +36592,37 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>157.4707519241424</v>
+        <v>103.0635169051822</v>
       </c>
       <c r="K26" t="n">
-        <v>171.8198231869478</v>
+        <v>226.2270582059103</v>
       </c>
       <c r="L26" t="n">
-        <v>279.2085051469003</v>
+        <v>279.2085051469002</v>
       </c>
       <c r="M26" t="n">
-        <v>313.1490523519865</v>
+        <v>76.29388538749055</v>
       </c>
       <c r="N26" t="n">
         <v>70.61684868354396</v>
       </c>
       <c r="O26" t="n">
-        <v>29.39930720046343</v>
+        <v>266.2544741649594</v>
       </c>
       <c r="P26" t="n">
-        <v>217.3532877907523</v>
+        <v>217.3532877907522</v>
       </c>
       <c r="Q26" t="n">
         <v>143.831773558336</v>
       </c>
       <c r="R26" t="n">
-        <v>40.04725578594449</v>
+        <v>40.04725578594443</v>
       </c>
       <c r="S26" t="n">
-        <v>8.639355450553683</v>
+        <v>8.639355450553627</v>
       </c>
       <c r="T26" t="n">
-        <v>14.25504217585938</v>
+        <v>14.25504217585932</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36659,7 +36659,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>34.70783856483288</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>34.70783856483305</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>68.14063602072902</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>115.8162724997876</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>34.64080367223848</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>13.03483280682028</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -36829,37 +36829,37 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>157.4707519241425</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>226.2270582059105</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>279.2085051469004</v>
+        <v>254.6580078925643</v>
       </c>
       <c r="M29" t="n">
-        <v>153.1284176864185</v>
+        <v>313.1490523519865</v>
       </c>
       <c r="N29" t="n">
-        <v>307.47201564804</v>
+        <v>307.4720156480399</v>
       </c>
       <c r="O29" t="n">
-        <v>266.2544741649595</v>
+        <v>266.2544741649593</v>
       </c>
       <c r="P29" t="n">
-        <v>33.13538285264593</v>
+        <v>217.3532877907522</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>38.2175541706319</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.0472557859444</v>
       </c>
       <c r="S29" t="n">
-        <v>8.639355450553769</v>
+        <v>8.639355450553598</v>
       </c>
       <c r="T29" t="n">
-        <v>14.25504217585947</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.70783856483261</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>12.88973144385405</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36938,7 +36938,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>21.81810712097909</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>93.80772316461844</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>115.8162724997873</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>22.00854933516942</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,37 +37066,37 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>157.4707519241425</v>
+        <v>157.4707519241423</v>
       </c>
       <c r="K32" t="n">
-        <v>226.2270582059105</v>
+        <v>226.2270582059102</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>254.234142000269</v>
       </c>
       <c r="M32" t="n">
-        <v>313.1490523519867</v>
+        <v>313.1490523519864</v>
       </c>
       <c r="N32" t="n">
-        <v>307.47201564804</v>
+        <v>70.61684868354396</v>
       </c>
       <c r="O32" t="n">
-        <v>29.39930720046343</v>
+        <v>40.01369111407995</v>
       </c>
       <c r="P32" t="n">
-        <v>205.2993909541932</v>
+        <v>217.3532877907521</v>
       </c>
       <c r="Q32" t="n">
-        <v>143.8317735583362</v>
+        <v>143.8317735583359</v>
       </c>
       <c r="R32" t="n">
-        <v>40.0472557859446</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>8.639355450553797</v>
+        <v>8.639355450553541</v>
       </c>
       <c r="T32" t="n">
-        <v>14.2550421758595</v>
+        <v>14.25504217585924</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -37139,7 +37139,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>34.70783856483332</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>34.70783856483252</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>97.9282847460492</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>17.88798775373883</v>
       </c>
       <c r="Q34" t="n">
-        <v>108.4863021913915</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.329970308395755</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,19 +37300,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.960948456208344</v>
+        <v>7.960948456208316</v>
       </c>
       <c r="J35" t="n">
-        <v>170.7685797866435</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>29.47865872229669</v>
+        <v>239.5248860684114</v>
       </c>
       <c r="L35" t="n">
-        <v>185.0390840462959</v>
+        <v>21.86186598070948</v>
       </c>
       <c r="M35" t="n">
-        <v>322.641967773228</v>
+        <v>322.6419677732281</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37321,19 +37321,19 @@
         <v>279.5523020274605</v>
       </c>
       <c r="P35" t="n">
-        <v>22.12555275813255</v>
+        <v>146.0251232642482</v>
       </c>
       <c r="Q35" t="n">
         <v>157.1296014208371</v>
       </c>
       <c r="R35" t="n">
-        <v>53.34508364844555</v>
+        <v>53.34508364844552</v>
       </c>
       <c r="S35" t="n">
-        <v>21.93718331305475</v>
+        <v>21.93718331305472</v>
       </c>
       <c r="T35" t="n">
-        <v>27.55287003836045</v>
+        <v>27.55287003836042</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37361,7 +37361,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>16.88765304562245</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>16.88765304562241</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>80.25918246310151</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>80.25918246310157</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.960948456208373</v>
+        <v>7.960948456208316</v>
       </c>
       <c r="J38" t="n">
         <v>170.7685797866435</v>
       </c>
       <c r="K38" t="n">
-        <v>239.5248860684115</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>21.86186598070954</v>
+        <v>21.86186598070948</v>
       </c>
       <c r="M38" t="n">
-        <v>307.9912468090162</v>
+        <v>322.641967773228</v>
       </c>
       <c r="N38" t="n">
-        <v>70.61684868354396</v>
+        <v>210.0800293698691</v>
       </c>
       <c r="O38" t="n">
-        <v>279.5523020274605</v>
+        <v>96.18682662804639</v>
       </c>
       <c r="P38" t="n">
-        <v>22.12555275813258</v>
+        <v>230.6511156532533</v>
       </c>
       <c r="Q38" t="n">
         <v>157.1296014208371</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>10.76084357075291</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>21.93718331305472</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>27.55287003836042</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>16.88765304562239</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>16.88765304562244</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>80.25918246310144</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>75.21520282055444</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>5.043979642547129</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>7.960948456208344</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.8962081754006</v>
+        <v>170.7685797866435</v>
       </c>
       <c r="K41" t="n">
-        <v>239.5248860684114</v>
+        <v>148.7844889681136</v>
       </c>
       <c r="L41" t="n">
         <v>292.5063330094014</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>35.16211051113211</v>
       </c>
       <c r="N41" t="n">
-        <v>320.769843510541</v>
+        <v>70.61684868354396</v>
       </c>
       <c r="O41" t="n">
-        <v>197.9476756174811</v>
+        <v>279.5523020274605</v>
       </c>
       <c r="P41" t="n">
-        <v>22.12555275813255</v>
+        <v>230.6511156532533</v>
       </c>
       <c r="Q41" t="n">
-        <v>19.54948747321888</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>10.76084357075294</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>21.93718331305475</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>3.963807197092204</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37883,13 +37883,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>16.88765304562242</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>12.92384584853022</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>80.25918246310151</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7.960948456208344</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>61.19397315513969</v>
       </c>
       <c r="K44" t="n">
-        <v>239.5248860684114</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>292.5063330094014</v>
+        <v>94.50744294265385</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>322.641967773228</v>
       </c>
       <c r="N44" t="n">
-        <v>185.7298372278515</v>
+        <v>320.769843510541</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>29.39930720046343</v>
       </c>
       <c r="P44" t="n">
         <v>230.6511156532533</v>
       </c>
       <c r="Q44" t="n">
-        <v>157.1296014208371</v>
+        <v>115.5330447558235</v>
       </c>
       <c r="R44" t="n">
         <v>53.34508364844555</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>16.88765304562242</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38126,10 +38126,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>12.92384584853022</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>3.963807197092204</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -38190,10 +38190,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>80.25918246310151</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
